--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1394125610291484</v>
+        <v>0.146728382372551</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3513066017617835</v>
+        <v>0.3820480876817053</v>
       </c>
       <c r="G2">
-        <v>0.1254598515707391</v>
+        <v>0.1312331496295026</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -719,40 +719,40 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0300724787281603</v>
+        <v>0.02530035232232037</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01847361026986566</v>
+        <v>0.01241918634857072</v>
       </c>
       <c r="M2">
-        <v>0.007290732174072548</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1345315493922528</v>
+        <v>0.1413077569692433</v>
       </c>
       <c r="P2">
-        <v>0.05155416210444903</v>
+        <v>0.04915691470687197</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01016696765940623</v>
+        <v>0.003194213883827319</v>
       </c>
       <c r="S2">
-        <v>0.006832566738613331</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03051147419784146</v>
+        <v>0.02578788035378479</v>
       </c>
       <c r="U2">
-        <v>0.06775426251041856</v>
+        <v>0.06714799572231989</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0052268959931728</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.02140628587007671</v>
+        <v>0.01567608000930275</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -817,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2230528271171323</v>
+        <v>0.2081706359741957</v>
       </c>
       <c r="E3">
-        <v>0.01467447455852309</v>
+        <v>0.0194266730984535</v>
       </c>
       <c r="F3">
-        <v>0.3180285973369705</v>
+        <v>0.2941973418597132</v>
       </c>
       <c r="G3">
-        <v>0.1234638801958112</v>
+        <v>0.11796542862059</v>
       </c>
       <c r="H3">
-        <v>0.007870437627838098</v>
+        <v>0.01326374456925716</v>
       </c>
       <c r="I3">
-        <v>0.003290327977106782</v>
+        <v>0.009115194418677976</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.001955529884740682</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.002581102335510627</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07536738752198818</v>
+        <v>0.07440081398468072</v>
       </c>
       <c r="P3">
-        <v>0.01858482704631432</v>
+        <v>0.02296857376003564</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0003259958202185632</v>
       </c>
       <c r="T3">
-        <v>0.05536532651630817</v>
+        <v>0.05628344136156933</v>
       </c>
       <c r="U3">
-        <v>0.08156858624900915</v>
+        <v>0.08001770656467529</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.004031999602821742</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.002478776160981503</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.005035748639735089</v>
+        <v>0.01069615332685925</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.003097649140142331</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004966203497648527</v>
+        <v>0.01063316105556522</v>
       </c>
       <c r="AI3">
-        <v>0.06873137571561452</v>
+        <v>0.06839007846131155</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -933,31 +933,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01793053357807211</v>
+        <v>0.02343998151366644</v>
       </c>
       <c r="E4">
-        <v>0.1913214668559838</v>
+        <v>0.1764896733302328</v>
       </c>
       <c r="F4">
-        <v>0.1961249494970221</v>
+        <v>0.1807296386153773</v>
       </c>
       <c r="G4">
-        <v>0.3657383938457505</v>
+        <v>0.3304449950920136</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05314496981627796</v>
+        <v>0.05452325969819024</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.001894424240110381</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.001421492054284055</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -966,67 +966,67 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01881655585632886</v>
+        <v>0.02422206068047304</v>
       </c>
       <c r="P4">
-        <v>0.03449847998565762</v>
+        <v>0.03806427036070836</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0004201532657197855</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.002076113154207626</v>
       </c>
       <c r="S4">
-        <v>0.006895444680382039</v>
+        <v>0.01369946669532312</v>
       </c>
       <c r="T4">
-        <v>0.01213941746729117</v>
+        <v>0.01832824631925254</v>
       </c>
       <c r="U4">
-        <v>0.05349163077447195</v>
+        <v>0.0548292523577452</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.005227610561714834</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.002674357372553733</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>9.600173344348558E-05</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0108621898849717</v>
+        <v>0.01720085583718911</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.00156095845846409</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.002974786372665701</v>
       </c>
       <c r="AG4">
-        <v>0.006329992897913441</v>
+        <v>0.01320035051082668</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03270597485987679</v>
+        <v>0.03648205177583774</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1049,28 +1049,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0166222887523202</v>
+        <v>0.02377592178668267</v>
       </c>
       <c r="E5">
-        <v>0.2317556573435376</v>
+        <v>0.2064318253893464</v>
       </c>
       <c r="F5">
-        <v>0.1843764365560175</v>
+        <v>0.1662051769544467</v>
       </c>
       <c r="G5">
-        <v>0.3793177551174527</v>
+        <v>0.3317173098444037</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03959424036719365</v>
+        <v>0.04327992810243129</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0007034522308447797</v>
+        <v>0.01026026176530243</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1079,70 +1079,70 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0006784259435481766</v>
       </c>
       <c r="O5">
-        <v>0.001027404746738711</v>
+        <v>0.010535309006474</v>
       </c>
       <c r="P5">
-        <v>0.01175846956979458</v>
+        <v>0.01964636581142028</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0003271657865236677</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.008988054474133613</v>
       </c>
       <c r="T5">
-        <v>0.01924126858972292</v>
+        <v>0.02599952908596186</v>
       </c>
       <c r="U5">
-        <v>0.06063891458070322</v>
+        <v>0.06114760715967816</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.003620166644498726</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.004675924027814859</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0007304788624605362</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0002965224978410135</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.003321740979905505</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.003246223085427599</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.00638100202865834</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.001518791959391048</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0003472636539069232</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0008075108066982096</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.006087066045894355</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.003644930821360635</v>
       </c>
       <c r="AI5">
-        <v>0.05496411214567382</v>
+        <v>0.05632949747578968</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1165,31 +1165,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1319855251659318</v>
+        <v>0.122136821192268</v>
       </c>
       <c r="E6">
-        <v>0.04579184825827361</v>
+        <v>0.04759345702374445</v>
       </c>
       <c r="F6">
-        <v>0.3347741234607933</v>
+        <v>0.2975156294094078</v>
       </c>
       <c r="G6">
-        <v>0.2691990305626665</v>
+        <v>0.2408039516429901</v>
       </c>
       <c r="H6">
-        <v>0.002868226877661598</v>
+        <v>0.01047157923873375</v>
       </c>
       <c r="I6">
-        <v>0.02710799338392731</v>
+        <v>0.03143499334128266</v>
       </c>
       <c r="J6">
-        <v>0.005688870644421639</v>
+        <v>0.012910972510244</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001755381676290487</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1198,31 +1198,31 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02106502934253471</v>
+        <v>0.0262088226364708</v>
       </c>
       <c r="P6">
-        <v>0.006824756269014002</v>
+        <v>0.01389332688710266</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.001224669829941411</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.000428088051892152</v>
       </c>
       <c r="T6">
-        <v>0.03999098481229016</v>
+        <v>0.04257666354353266</v>
       </c>
       <c r="U6">
-        <v>0.04462037041324453</v>
+        <v>0.04658032122596528</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.004712814252124066</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.008009720156683404</v>
+        <v>0.01491812589526798</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.008673289592570717</v>
+        <v>0.01549200439639565</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.003341848029492348</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.005128019431330762</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.006699052113595934</v>
       </c>
       <c r="AI6">
-        <v>0.05340023105998669</v>
+        <v>0.05417345767192701</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1290,100 +1290,100 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1740295844911117</v>
+        <v>0.1506786314582271</v>
       </c>
       <c r="H7">
-        <v>0.1612827082177539</v>
+        <v>0.1403745609477622</v>
       </c>
       <c r="I7">
-        <v>0.3732653008452436</v>
+        <v>0.3117329027550151</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.901020251254334E-05</v>
       </c>
       <c r="K7">
-        <v>0.1219764422094778</v>
+        <v>0.10860093047024</v>
       </c>
       <c r="L7">
-        <v>0.02163999729921424</v>
+        <v>0.02749291773416072</v>
       </c>
       <c r="M7">
-        <v>0.0110976094435199</v>
+        <v>0.01897086845054217</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.002348325059980509</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.001169697572669362</v>
       </c>
       <c r="P7">
-        <v>0.02044265348281455</v>
+        <v>0.02652503236013869</v>
       </c>
       <c r="Q7">
-        <v>0.001203450732164313</v>
+        <v>0.01097282196313537</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.002485728950265189</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.003002248960621915</v>
       </c>
       <c r="T7">
-        <v>0.03456239729537649</v>
+        <v>0.03793887467838793</v>
       </c>
       <c r="U7">
-        <v>0.008064863883952878</v>
+        <v>0.01651931691619547</v>
       </c>
       <c r="V7">
-        <v>0.02291450278089644</v>
+        <v>0.02852317754586658</v>
       </c>
       <c r="W7">
-        <v>0.02163999729921424</v>
+        <v>0.02749291773416072</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.0002249073497383939</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.0001543465148009177</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.0007984454507377269</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.009238705812601417</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.983163720425439E-05</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.003315266726153893</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.002576507508039257</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.0003850907622584306</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.000158087604993343</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.005654779167580425</v>
       </c>
       <c r="AH7">
-        <v>0.006663447141420697</v>
+        <v>0.01538646706185278</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.009687699109207082</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.003953569358395402</v>
       </c>
       <c r="AK7">
-        <v>0.02121704487783905</v>
+        <v>0.0271510197288015</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.006417312447753299</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1403,25 +1403,25 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08010474714932678</v>
+        <v>0.08007208645178034</v>
       </c>
       <c r="G8">
-        <v>0.03927371750317835</v>
+        <v>0.03930372097862372</v>
       </c>
       <c r="H8">
-        <v>0.261111725438868</v>
+        <v>0.2608012698216597</v>
       </c>
       <c r="I8">
-        <v>0.2413570293346003</v>
+        <v>0.2410768916325857</v>
       </c>
       <c r="J8">
-        <v>0.05198203885662605</v>
+        <v>0.05199253862485097</v>
       </c>
       <c r="K8">
-        <v>0.1012369226572327</v>
+        <v>0.1011718300001399</v>
       </c>
       <c r="L8">
-        <v>0.05651704223407296</v>
+        <v>0.05652058204467188</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00790786749701541</v>
+        <v>0.007986008750710665</v>
       </c>
       <c r="P8">
-        <v>0.01599527708229681</v>
+        <v>0.01606100643167078</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.006057525690476423</v>
+        <v>0.006138506699623934</v>
       </c>
       <c r="T8">
-        <v>0.03575417838666555</v>
+        <v>0.0357895833670438</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.04678974909485621</v>
+        <v>0.04680821757086722</v>
       </c>
       <c r="W8">
-        <v>0.01718844506879844</v>
+        <v>0.01725234324012565</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.002065730674153862</v>
+        <v>0.002152837968521669</v>
       </c>
       <c r="AH8">
-        <v>0.0119516050509034</v>
+        <v>0.01202354030215869</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.001519031140112963</v>
+        <v>0.001606977464857239</v>
       </c>
       <c r="AK8">
-        <v>0.02318736714081559</v>
+        <v>0.02324205865010799</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1519,34 +1519,34 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2931863829230743</v>
+        <v>0.2869969001468278</v>
       </c>
       <c r="G9">
-        <v>0.05279242096973853</v>
+        <v>0.05360395299682633</v>
       </c>
       <c r="H9">
-        <v>0.3353426788512778</v>
+        <v>0.3279254745072808</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1548643549885769</v>
+        <v>0.152703236973774</v>
       </c>
       <c r="K9">
-        <v>0.02146523629674041</v>
+        <v>0.02318911271825615</v>
       </c>
       <c r="L9">
-        <v>0.02017160249029848</v>
+        <v>0.02193315352458486</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0023393883376167</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.0009445863404342351</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.01464661759939131</v>
+        <v>0.01656907326162733</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.03666975627415184</v>
+        <v>0.03795083010372847</v>
       </c>
       <c r="V9">
-        <v>0.03570271488160779</v>
+        <v>0.03701195194394461</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.02634189984287863</v>
+        <v>0.0279237527568155</v>
       </c>
       <c r="AK9">
-        <v>0.00881633488226412</v>
+        <v>0.01090858638828325</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1629,28 +1629,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1024550660338008</v>
+        <v>0.1000084351846172</v>
       </c>
       <c r="E10">
-        <v>0.007987873922331509</v>
+        <v>0.01161775949317143</v>
       </c>
       <c r="F10">
-        <v>0.3464668695427656</v>
+        <v>0.3283244008311398</v>
       </c>
       <c r="G10">
-        <v>0.2769204565157678</v>
+        <v>0.2632514977208297</v>
       </c>
       <c r="H10">
-        <v>0.03896129746908829</v>
+        <v>0.04059884567327791</v>
       </c>
       <c r="I10">
-        <v>0.03231802664252788</v>
+        <v>0.03438289721502315</v>
       </c>
       <c r="J10">
-        <v>0.07570738389718369</v>
+        <v>0.07498127343256848</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.004038814969247384</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.008058873848010512</v>
+        <v>0.01168419241305121</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1668,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.005747452874971437</v>
+        <v>0.009521451496890359</v>
       </c>
       <c r="R10">
-        <v>0.03295021947555255</v>
+        <v>0.03497442481766856</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.04769307288151866</v>
+        <v>0.04876895755487123</v>
       </c>
       <c r="U10">
-        <v>0.00581294397000388</v>
+        <v>0.009582729936656618</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.003108691206942004</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.003308508424996406</v>
       </c>
       <c r="AI10">
-        <v>0.0189204629264772</v>
+        <v>0.02184711962904853</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1751,40 +1751,40 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01700878358292555</v>
+        <v>0.01346116491489788</v>
       </c>
       <c r="G11">
-        <v>0.1166857561046437</v>
+        <v>0.1195217095439556</v>
       </c>
       <c r="H11">
-        <v>0.1772678294000274</v>
+        <v>0.1839836160998143</v>
       </c>
       <c r="I11">
-        <v>0.3738304975026489</v>
+        <v>0.3931346677949525</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1193605362847764</v>
+        <v>0.122367789591241</v>
       </c>
       <c r="L11">
-        <v>0.04234951896147673</v>
+        <v>0.04042478677815592</v>
       </c>
       <c r="M11">
-        <v>0.005097896931956124</v>
+        <v>0.0007874741590761989</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.003536349962164489</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.009207707246312763</v>
+        <v>0.005160487396088493</v>
       </c>
       <c r="Q11">
-        <v>0.004357819267916895</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.03715644214300353</v>
+        <v>0.03489913183766506</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.04297352494861471</v>
+        <v>0.04108875572879019</v>
       </c>
       <c r="W11">
-        <v>0.03364147706840915</v>
+        <v>0.03115905927394059</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.01752586059512376</v>
+        <v>0.01401135688142213</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1990,97 +1990,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1394125610291484</v>
+        <v>0.146728382372551</v>
       </c>
       <c r="E2">
-        <v>0.1394125610291484</v>
+        <v>0.146728382372551</v>
       </c>
       <c r="F2">
-        <v>0.4907191627909319</v>
+        <v>0.5287764700542563</v>
       </c>
       <c r="G2">
-        <v>0.616179014361671</v>
+        <v>0.6600096196837589</v>
       </c>
       <c r="H2">
-        <v>0.616179014361671</v>
+        <v>0.6600096196837589</v>
       </c>
       <c r="I2">
-        <v>0.616179014361671</v>
+        <v>0.6600096196837589</v>
       </c>
       <c r="J2">
-        <v>0.6462514930898313</v>
+        <v>0.6853099720060793</v>
       </c>
       <c r="K2">
-        <v>0.6462514930898313</v>
+        <v>0.6853099720060793</v>
       </c>
       <c r="L2">
-        <v>0.6647251033596969</v>
+        <v>0.6977291583546501</v>
       </c>
       <c r="M2">
-        <v>0.6720158355337694</v>
+        <v>0.6977291583546501</v>
       </c>
       <c r="N2">
-        <v>0.6720158355337694</v>
+        <v>0.6977291583546501</v>
       </c>
       <c r="O2">
-        <v>0.8065473849260222</v>
+        <v>0.8390369153238935</v>
       </c>
       <c r="P2">
-        <v>0.8581015470304713</v>
+        <v>0.8881938300307655</v>
       </c>
       <c r="Q2">
-        <v>0.8581015470304713</v>
+        <v>0.8881938300307655</v>
       </c>
       <c r="R2">
-        <v>0.8682685146898775</v>
+        <v>0.8913880439145928</v>
       </c>
       <c r="S2">
-        <v>0.8751010814284909</v>
+        <v>0.8913880439145928</v>
       </c>
       <c r="T2">
-        <v>0.9056125556263324</v>
+        <v>0.9171759242683776</v>
       </c>
       <c r="U2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="V2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="W2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="X2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="Y2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="Z2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AA2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AB2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AC2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AD2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AE2">
-        <v>0.973366818136751</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AF2">
-        <v>0.9785937141299238</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AG2">
-        <v>0.9785937141299238</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AH2">
-        <v>0.9785937141299238</v>
+        <v>0.9843239199906975</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2106,97 +2106,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2230528271171323</v>
+        <v>0.2081706359741957</v>
       </c>
       <c r="E3">
-        <v>0.2377273016756554</v>
+        <v>0.2275973090726492</v>
       </c>
       <c r="F3">
-        <v>0.5557558990126259</v>
+        <v>0.5217946509323624</v>
       </c>
       <c r="G3">
-        <v>0.6792197792084371</v>
+        <v>0.6397600795529524</v>
       </c>
       <c r="H3">
-        <v>0.6870902168362752</v>
+        <v>0.6530238241222096</v>
       </c>
       <c r="I3">
-        <v>0.6903805448133821</v>
+        <v>0.6621390185408876</v>
       </c>
       <c r="J3">
-        <v>0.6903805448133821</v>
+        <v>0.6621390185408876</v>
       </c>
       <c r="K3">
-        <v>0.6903805448133821</v>
+        <v>0.6640945484256283</v>
       </c>
       <c r="L3">
-        <v>0.6903805448133821</v>
+        <v>0.666675650761139</v>
       </c>
       <c r="M3">
-        <v>0.6903805448133821</v>
+        <v>0.666675650761139</v>
       </c>
       <c r="N3">
-        <v>0.6903805448133821</v>
+        <v>0.666675650761139</v>
       </c>
       <c r="O3">
-        <v>0.7657479323353702</v>
+        <v>0.7410764647458197</v>
       </c>
       <c r="P3">
-        <v>0.7843327593816846</v>
+        <v>0.7640450385058554</v>
       </c>
       <c r="Q3">
-        <v>0.7843327593816846</v>
+        <v>0.7640450385058554</v>
       </c>
       <c r="R3">
-        <v>0.7843327593816846</v>
+        <v>0.7640450385058554</v>
       </c>
       <c r="S3">
-        <v>0.7843327593816846</v>
+        <v>0.7643710343260739</v>
       </c>
       <c r="T3">
-        <v>0.8396980858979928</v>
+        <v>0.8206544756876433</v>
       </c>
       <c r="U3">
-        <v>0.921266672147002</v>
+        <v>0.9006721822523186</v>
       </c>
       <c r="V3">
-        <v>0.921266672147002</v>
+        <v>0.9006721822523186</v>
       </c>
       <c r="W3">
-        <v>0.921266672147002</v>
+        <v>0.9006721822523186</v>
       </c>
       <c r="X3">
-        <v>0.921266672147002</v>
+        <v>0.9006721822523186</v>
       </c>
       <c r="Y3">
-        <v>0.921266672147002</v>
+        <v>0.9047041818551403</v>
       </c>
       <c r="Z3">
-        <v>0.921266672147002</v>
+        <v>0.9071829580161218</v>
       </c>
       <c r="AA3">
-        <v>0.921266672147002</v>
+        <v>0.9071829580161218</v>
       </c>
       <c r="AB3">
-        <v>0.921266672147002</v>
+        <v>0.9071829580161218</v>
       </c>
       <c r="AC3">
-        <v>0.9263024207867371</v>
+        <v>0.9178791113429811</v>
       </c>
       <c r="AD3">
-        <v>0.9263024207867371</v>
+        <v>0.9178791113429811</v>
       </c>
       <c r="AE3">
-        <v>0.9263024207867371</v>
+        <v>0.9178791113429811</v>
       </c>
       <c r="AF3">
-        <v>0.9263024207867371</v>
+        <v>0.9209767604831234</v>
       </c>
       <c r="AG3">
-        <v>0.9263024207867371</v>
+        <v>0.9209767604831234</v>
       </c>
       <c r="AH3">
-        <v>0.9312686242843856</v>
+        <v>0.9316099215386886</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -2222,109 +2222,109 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01793053357807211</v>
+        <v>0.02343998151366644</v>
       </c>
       <c r="E4">
-        <v>0.2092520004340559</v>
+        <v>0.1999296548438992</v>
       </c>
       <c r="F4">
-        <v>0.405376949931078</v>
+        <v>0.3806592934592765</v>
       </c>
       <c r="G4">
-        <v>0.7711153437768284</v>
+        <v>0.7111042885512902</v>
       </c>
       <c r="H4">
-        <v>0.7711153437768284</v>
+        <v>0.7111042885512902</v>
       </c>
       <c r="I4">
-        <v>0.8242603135931064</v>
+        <v>0.7656275482494804</v>
       </c>
       <c r="J4">
-        <v>0.8242603135931064</v>
+        <v>0.7656275482494804</v>
       </c>
       <c r="K4">
-        <v>0.8242603135931064</v>
+        <v>0.7675219724895908</v>
       </c>
       <c r="L4">
-        <v>0.8242603135931064</v>
+        <v>0.7689434645438749</v>
       </c>
       <c r="M4">
-        <v>0.8242603135931064</v>
+        <v>0.7689434645438749</v>
       </c>
       <c r="N4">
-        <v>0.8242603135931064</v>
+        <v>0.7689434645438749</v>
       </c>
       <c r="O4">
-        <v>0.8430768694494353</v>
+        <v>0.7931655252243479</v>
       </c>
       <c r="P4">
-        <v>0.8775753494350929</v>
+        <v>0.8312297955850563</v>
       </c>
       <c r="Q4">
-        <v>0.8775753494350929</v>
+        <v>0.831649948850776</v>
       </c>
       <c r="R4">
-        <v>0.8775753494350929</v>
+        <v>0.8337260620049837</v>
       </c>
       <c r="S4">
-        <v>0.8844707941154749</v>
+        <v>0.8474255287003067</v>
       </c>
       <c r="T4">
-        <v>0.8966102115827661</v>
+        <v>0.8657537750195593</v>
       </c>
       <c r="U4">
-        <v>0.950101842357238</v>
+        <v>0.9205830273773045</v>
       </c>
       <c r="V4">
-        <v>0.950101842357238</v>
+        <v>0.9205830273773045</v>
       </c>
       <c r="W4">
-        <v>0.950101842357238</v>
+        <v>0.9258106379390193</v>
       </c>
       <c r="X4">
-        <v>0.950101842357238</v>
+        <v>0.9258106379390193</v>
       </c>
       <c r="Y4">
-        <v>0.950101842357238</v>
+        <v>0.928484995311573</v>
       </c>
       <c r="Z4">
-        <v>0.950101842357238</v>
+        <v>0.928484995311573</v>
       </c>
       <c r="AA4">
-        <v>0.950101842357238</v>
+        <v>0.9285809970450165</v>
       </c>
       <c r="AB4">
-        <v>0.950101842357238</v>
+        <v>0.9285809970450165</v>
       </c>
       <c r="AC4">
-        <v>0.9609640322422097</v>
+        <v>0.9457818528822056</v>
       </c>
       <c r="AD4">
-        <v>0.9609640322422097</v>
+        <v>0.9473428113406697</v>
       </c>
       <c r="AE4">
-        <v>0.9609640322422097</v>
+        <v>0.9473428113406697</v>
       </c>
       <c r="AF4">
-        <v>0.9609640322422097</v>
+        <v>0.9503175977133353</v>
       </c>
       <c r="AG4">
-        <v>0.9672940251401232</v>
+        <v>0.963517948224162</v>
       </c>
       <c r="AH4">
-        <v>0.9672940251401232</v>
+        <v>0.963517948224162</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -2338,109 +2338,109 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0166222887523202</v>
+        <v>0.02377592178668267</v>
       </c>
       <c r="E5">
-        <v>0.2483779460958578</v>
+        <v>0.230207747176029</v>
       </c>
       <c r="F5">
-        <v>0.4327543826518753</v>
+        <v>0.3964129241304757</v>
       </c>
       <c r="G5">
-        <v>0.8120721377693281</v>
+        <v>0.7281302339748794</v>
       </c>
       <c r="H5">
-        <v>0.8120721377693281</v>
+        <v>0.7281302339748794</v>
       </c>
       <c r="I5">
-        <v>0.8516663781365217</v>
+        <v>0.7714101620773107</v>
       </c>
       <c r="J5">
-        <v>0.8516663781365217</v>
+        <v>0.7714101620773107</v>
       </c>
       <c r="K5">
-        <v>0.8523698303673665</v>
+        <v>0.7816704238426132</v>
       </c>
       <c r="L5">
-        <v>0.8523698303673665</v>
+        <v>0.7816704238426132</v>
       </c>
       <c r="M5">
-        <v>0.8523698303673665</v>
+        <v>0.7816704238426132</v>
       </c>
       <c r="N5">
-        <v>0.8523698303673665</v>
+        <v>0.7823488497861614</v>
       </c>
       <c r="O5">
-        <v>0.8533972351141051</v>
+        <v>0.7928841587926354</v>
       </c>
       <c r="P5">
-        <v>0.8651557046838997</v>
+        <v>0.8125305246040557</v>
       </c>
       <c r="Q5">
-        <v>0.8651557046838997</v>
+        <v>0.8128576903905794</v>
       </c>
       <c r="R5">
-        <v>0.8651557046838997</v>
+        <v>0.8128576903905794</v>
       </c>
       <c r="S5">
-        <v>0.8651557046838997</v>
+        <v>0.8218457448647131</v>
       </c>
       <c r="T5">
-        <v>0.8843969732736227</v>
+        <v>0.8478452739506749</v>
       </c>
       <c r="U5">
-        <v>0.9450358878543259</v>
+        <v>0.908992881110353</v>
       </c>
       <c r="V5">
-        <v>0.9450358878543259</v>
+        <v>0.9126130477548517</v>
       </c>
       <c r="W5">
-        <v>0.9450358878543259</v>
+        <v>0.9172889717826666</v>
       </c>
       <c r="X5">
-        <v>0.9450358878543259</v>
+        <v>0.9172889717826666</v>
       </c>
       <c r="Y5">
-        <v>0.9450358878543259</v>
+        <v>0.9180194506451271</v>
       </c>
       <c r="Z5">
-        <v>0.9450358878543259</v>
+        <v>0.9183159731429682</v>
       </c>
       <c r="AA5">
-        <v>0.9450358878543259</v>
+        <v>0.9216377141228737</v>
       </c>
       <c r="AB5">
-        <v>0.9450358878543259</v>
+        <v>0.9248839372083012</v>
       </c>
       <c r="AC5">
-        <v>0.9450358878543259</v>
+        <v>0.9312649392369595</v>
       </c>
       <c r="AD5">
-        <v>0.9450358878543259</v>
+        <v>0.9327837311963506</v>
       </c>
       <c r="AE5">
-        <v>0.9450358878543259</v>
+        <v>0.9331309948502575</v>
       </c>
       <c r="AF5">
-        <v>0.9450358878543259</v>
+        <v>0.9339385056569557</v>
       </c>
       <c r="AG5">
-        <v>0.9450358878543259</v>
+        <v>0.9400255717028501</v>
       </c>
       <c r="AH5">
-        <v>0.9450358878543259</v>
+        <v>0.9436705025242107</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2454,97 +2454,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1319855251659318</v>
+        <v>0.122136821192268</v>
       </c>
       <c r="E6">
-        <v>0.1777773734242054</v>
+        <v>0.1697302782160124</v>
       </c>
       <c r="F6">
-        <v>0.5125514968849987</v>
+        <v>0.4672459076254203</v>
       </c>
       <c r="G6">
-        <v>0.7817505274476652</v>
+        <v>0.7080498592684104</v>
       </c>
       <c r="H6">
-        <v>0.7846187543253268</v>
+        <v>0.7185214385071441</v>
       </c>
       <c r="I6">
-        <v>0.8117267477092541</v>
+        <v>0.7499564318484268</v>
       </c>
       <c r="J6">
-        <v>0.8174156183536757</v>
+        <v>0.7628674043586707</v>
       </c>
       <c r="K6">
-        <v>0.8174156183536757</v>
+        <v>0.7628674043586707</v>
       </c>
       <c r="L6">
-        <v>0.8174156183536757</v>
+        <v>0.7646227860349613</v>
       </c>
       <c r="M6">
-        <v>0.8174156183536757</v>
+        <v>0.7646227860349613</v>
       </c>
       <c r="N6">
-        <v>0.8174156183536757</v>
+        <v>0.7646227860349613</v>
       </c>
       <c r="O6">
-        <v>0.8384806476962104</v>
+        <v>0.7908316086714321</v>
       </c>
       <c r="P6">
-        <v>0.8453054039652245</v>
+        <v>0.8047249355585347</v>
       </c>
       <c r="Q6">
-        <v>0.8453054039652245</v>
+        <v>0.8047249355585347</v>
       </c>
       <c r="R6">
-        <v>0.8453054039652245</v>
+        <v>0.8059496053884762</v>
       </c>
       <c r="S6">
-        <v>0.8453054039652245</v>
+        <v>0.8063776934403684</v>
       </c>
       <c r="T6">
-        <v>0.8852963887775146</v>
+        <v>0.848954356983901</v>
       </c>
       <c r="U6">
-        <v>0.9299167591907591</v>
+        <v>0.8955346782098662</v>
       </c>
       <c r="V6">
-        <v>0.9299167591907591</v>
+        <v>0.8955346782098662</v>
       </c>
       <c r="W6">
-        <v>0.9299167591907591</v>
+        <v>0.9002474924619903</v>
       </c>
       <c r="X6">
-        <v>0.9299167591907591</v>
+        <v>0.9002474924619903</v>
       </c>
       <c r="Y6">
-        <v>0.9299167591907591</v>
+        <v>0.9002474924619903</v>
       </c>
       <c r="Z6">
-        <v>0.9299167591907591</v>
+        <v>0.9002474924619903</v>
       </c>
       <c r="AA6">
-        <v>0.9379264793474426</v>
+        <v>0.9151656183572583</v>
       </c>
       <c r="AB6">
-        <v>0.9379264793474426</v>
+        <v>0.9151656183572583</v>
       </c>
       <c r="AC6">
-        <v>0.9465997689400133</v>
+        <v>0.9306576227536539</v>
       </c>
       <c r="AD6">
-        <v>0.9465997689400133</v>
+        <v>0.9306576227536539</v>
       </c>
       <c r="AE6">
-        <v>0.9465997689400133</v>
+        <v>0.9306576227536539</v>
       </c>
       <c r="AF6">
-        <v>0.9465997689400133</v>
+        <v>0.9339994707831463</v>
       </c>
       <c r="AG6">
-        <v>0.9465997689400133</v>
+        <v>0.9391274902144771</v>
       </c>
       <c r="AH6">
-        <v>0.9465997689400133</v>
+        <v>0.945826542328073</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2579,100 +2579,100 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1740295844911117</v>
+        <v>0.1506786314582271</v>
       </c>
       <c r="H7">
-        <v>0.3353122927088656</v>
+        <v>0.2910531924059894</v>
       </c>
       <c r="I7">
-        <v>0.7085775935541092</v>
+        <v>0.6027860951610045</v>
       </c>
       <c r="J7">
-        <v>0.7085775935541092</v>
+        <v>0.602835105363517</v>
       </c>
       <c r="K7">
-        <v>0.830554035763587</v>
+        <v>0.711436035833757</v>
       </c>
       <c r="L7">
-        <v>0.8521940330628013</v>
+        <v>0.7389289535679178</v>
       </c>
       <c r="M7">
-        <v>0.8632916425063212</v>
+        <v>0.75789982201846</v>
       </c>
       <c r="N7">
-        <v>0.8632916425063212</v>
+        <v>0.7602481470784405</v>
       </c>
       <c r="O7">
-        <v>0.8632916425063212</v>
+        <v>0.7614178446511098</v>
       </c>
       <c r="P7">
-        <v>0.8837342959891358</v>
+        <v>0.7879428770112485</v>
       </c>
       <c r="Q7">
-        <v>0.8849377467213001</v>
+        <v>0.798915698974384</v>
       </c>
       <c r="R7">
-        <v>0.8849377467213001</v>
+        <v>0.8014014279246492</v>
       </c>
       <c r="S7">
-        <v>0.8849377467213001</v>
+        <v>0.8044036768852711</v>
       </c>
       <c r="T7">
-        <v>0.9195001440166766</v>
+        <v>0.8423425515636591</v>
       </c>
       <c r="U7">
-        <v>0.9275650079006295</v>
+        <v>0.8588618684798546</v>
       </c>
       <c r="V7">
-        <v>0.9504795106815259</v>
+        <v>0.8873850460257211</v>
       </c>
       <c r="W7">
-        <v>0.9721195079807402</v>
+        <v>0.9148779637598818</v>
       </c>
       <c r="X7">
-        <v>0.9721195079807402</v>
+        <v>0.9151028711096202</v>
       </c>
       <c r="Y7">
-        <v>0.9721195079807402</v>
+        <v>0.9152572176244211</v>
       </c>
       <c r="Z7">
-        <v>0.9721195079807402</v>
+        <v>0.9160556630751588</v>
       </c>
       <c r="AA7">
-        <v>0.9721195079807402</v>
+        <v>0.9252943688877603</v>
       </c>
       <c r="AB7">
-        <v>0.9721195079807402</v>
+        <v>0.9253142005249645</v>
       </c>
       <c r="AC7">
-        <v>0.9721195079807402</v>
+        <v>0.9286294672511184</v>
       </c>
       <c r="AD7">
-        <v>0.9721195079807402</v>
+        <v>0.9312059747591577</v>
       </c>
       <c r="AE7">
-        <v>0.9721195079807402</v>
+        <v>0.9315910655214161</v>
       </c>
       <c r="AF7">
-        <v>0.9721195079807402</v>
+        <v>0.9317491531264095</v>
       </c>
       <c r="AG7">
-        <v>0.9721195079807402</v>
+        <v>0.9374039322939899</v>
       </c>
       <c r="AH7">
-        <v>0.9787829551221608</v>
+        <v>0.9527903993558426</v>
       </c>
       <c r="AI7">
-        <v>0.9787829551221608</v>
+        <v>0.9624780984650497</v>
       </c>
       <c r="AJ7">
-        <v>0.9787829551221608</v>
+        <v>0.9664316678234451</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>0.9935826875522467</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2692,103 +2692,103 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08010474714932678</v>
+        <v>0.08007208645178034</v>
       </c>
       <c r="G8">
-        <v>0.1193784646525051</v>
+        <v>0.119375807430404</v>
       </c>
       <c r="H8">
-        <v>0.3804901900913731</v>
+        <v>0.3801770772520638</v>
       </c>
       <c r="I8">
-        <v>0.6218472194259734</v>
+        <v>0.6212539688846495</v>
       </c>
       <c r="J8">
-        <v>0.6738292582825994</v>
+        <v>0.6732465075095004</v>
       </c>
       <c r="K8">
-        <v>0.7750661809398322</v>
+        <v>0.7744183375096404</v>
       </c>
       <c r="L8">
-        <v>0.8315832231739051</v>
+        <v>0.8309389195543123</v>
       </c>
       <c r="M8">
-        <v>0.8315832231739051</v>
+        <v>0.8309389195543123</v>
       </c>
       <c r="N8">
-        <v>0.8315832231739051</v>
+        <v>0.8309389195543123</v>
       </c>
       <c r="O8">
-        <v>0.8394910906709205</v>
+        <v>0.838924928305023</v>
       </c>
       <c r="P8">
-        <v>0.8554863677532174</v>
+        <v>0.8549859347366937</v>
       </c>
       <c r="Q8">
-        <v>0.8554863677532174</v>
+        <v>0.8549859347366937</v>
       </c>
       <c r="R8">
-        <v>0.8554863677532174</v>
+        <v>0.8549859347366937</v>
       </c>
       <c r="S8">
-        <v>0.8615438934436939</v>
+        <v>0.8611244414363176</v>
       </c>
       <c r="T8">
-        <v>0.8972980718303594</v>
+        <v>0.8969140248033614</v>
       </c>
       <c r="U8">
-        <v>0.8972980718303594</v>
+        <v>0.8969140248033614</v>
       </c>
       <c r="V8">
-        <v>0.9440878209252156</v>
+        <v>0.9437222423742285</v>
       </c>
       <c r="W8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="X8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="Y8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="Z8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AA8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AB8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AC8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AD8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AE8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AF8">
-        <v>0.9612762659940141</v>
+        <v>0.9609745856143542</v>
       </c>
       <c r="AG8">
-        <v>0.9633419966681679</v>
+        <v>0.9631274235828758</v>
       </c>
       <c r="AH8">
-        <v>0.9752936017190713</v>
+        <v>0.9751509638850345</v>
       </c>
       <c r="AI8">
-        <v>0.9752936017190713</v>
+        <v>0.9751509638850345</v>
       </c>
       <c r="AJ8">
-        <v>0.9768126328591843</v>
+        <v>0.9767579413498918</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2808,97 +2808,97 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2931863829230743</v>
+        <v>0.2869969001468278</v>
       </c>
       <c r="G9">
-        <v>0.3459788038928128</v>
+        <v>0.3406008531436541</v>
       </c>
       <c r="H9">
-        <v>0.6813214827440905</v>
+        <v>0.6685263276509349</v>
       </c>
       <c r="I9">
-        <v>0.6813214827440905</v>
+        <v>0.6685263276509349</v>
       </c>
       <c r="J9">
-        <v>0.8361858377326674</v>
+        <v>0.8212295646247089</v>
       </c>
       <c r="K9">
-        <v>0.8576510740294079</v>
+        <v>0.8444186773429651</v>
       </c>
       <c r="L9">
-        <v>0.8778226765197064</v>
+        <v>0.8663518308675499</v>
       </c>
       <c r="M9">
-        <v>0.8778226765197064</v>
+        <v>0.8663518308675499</v>
       </c>
       <c r="N9">
-        <v>0.8778226765197064</v>
+        <v>0.8686912192051666</v>
       </c>
       <c r="O9">
-        <v>0.8778226765197064</v>
+        <v>0.8696358055456008</v>
       </c>
       <c r="P9">
-        <v>0.8778226765197064</v>
+        <v>0.8696358055456008</v>
       </c>
       <c r="Q9">
-        <v>0.8778226765197064</v>
+        <v>0.8696358055456008</v>
       </c>
       <c r="R9">
-        <v>0.8778226765197064</v>
+        <v>0.8696358055456008</v>
       </c>
       <c r="S9">
-        <v>0.8924692941190977</v>
+        <v>0.8862048788072282</v>
       </c>
       <c r="T9">
-        <v>0.8924692941190977</v>
+        <v>0.8862048788072282</v>
       </c>
       <c r="U9">
-        <v>0.9291390503932495</v>
+        <v>0.9241557089109567</v>
       </c>
       <c r="V9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="W9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="X9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="Y9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="Z9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AA9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AB9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AC9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AD9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AE9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AF9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AG9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AH9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AI9">
-        <v>0.9648417652748573</v>
+        <v>0.9611676608549012</v>
       </c>
       <c r="AJ9">
-        <v>0.9911836651177359</v>
+        <v>0.9890914136117167</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -2918,109 +2918,109 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1024550660338008</v>
+        <v>0.1000084351846172</v>
       </c>
       <c r="E10">
-        <v>0.1104429399561324</v>
+        <v>0.1116261946777886</v>
       </c>
       <c r="F10">
-        <v>0.4569098094988979</v>
+        <v>0.4399505955089285</v>
       </c>
       <c r="G10">
-        <v>0.7338302660146657</v>
+        <v>0.7032020932297582</v>
       </c>
       <c r="H10">
-        <v>0.772791563483754</v>
+        <v>0.7438009389030361</v>
       </c>
       <c r="I10">
-        <v>0.8051095901262819</v>
+        <v>0.7781838361180593</v>
       </c>
       <c r="J10">
-        <v>0.8808169740234656</v>
+        <v>0.8531651095506277</v>
       </c>
       <c r="K10">
-        <v>0.8808169740234656</v>
+        <v>0.8572039245198751</v>
       </c>
       <c r="L10">
-        <v>0.8808169740234656</v>
+        <v>0.8572039245198751</v>
       </c>
       <c r="M10">
-        <v>0.8808169740234656</v>
+        <v>0.8572039245198751</v>
       </c>
       <c r="N10">
-        <v>0.8888758478714761</v>
+        <v>0.8688881169329263</v>
       </c>
       <c r="O10">
-        <v>0.8888758478714761</v>
+        <v>0.8688881169329263</v>
       </c>
       <c r="P10">
-        <v>0.8888758478714761</v>
+        <v>0.8688881169329263</v>
       </c>
       <c r="Q10">
-        <v>0.8946233007464476</v>
+        <v>0.8784095684298167</v>
       </c>
       <c r="R10">
-        <v>0.9275735202220001</v>
+        <v>0.9133839932474852</v>
       </c>
       <c r="S10">
-        <v>0.9275735202220001</v>
+        <v>0.9133839932474852</v>
       </c>
       <c r="T10">
-        <v>0.9752665931035188</v>
+        <v>0.9621529508023564</v>
       </c>
       <c r="U10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="V10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="W10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="X10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="Y10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="Z10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AA10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AB10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AC10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AD10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AE10">
-        <v>0.9810795370735227</v>
+        <v>0.9717356807390131</v>
       </c>
       <c r="AF10">
-        <v>0.9810795370735227</v>
+        <v>0.9748443719459551</v>
       </c>
       <c r="AG10">
-        <v>0.9810795370735227</v>
+        <v>0.9748443719459551</v>
       </c>
       <c r="AH10">
-        <v>0.9810795370735227</v>
+        <v>0.9781528803709515</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -3040,97 +3040,97 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01700878358292555</v>
+        <v>0.01346116491489788</v>
       </c>
       <c r="G11">
-        <v>0.1336945396875693</v>
+        <v>0.1329828744588535</v>
       </c>
       <c r="H11">
-        <v>0.3109623690875967</v>
+        <v>0.3169664905586678</v>
       </c>
       <c r="I11">
-        <v>0.6847928665902455</v>
+        <v>0.7101011583536203</v>
       </c>
       <c r="J11">
-        <v>0.6847928665902455</v>
+        <v>0.7101011583536203</v>
       </c>
       <c r="K11">
-        <v>0.8041534028750219</v>
+        <v>0.8324689479448614</v>
       </c>
       <c r="L11">
-        <v>0.8465029218364987</v>
+        <v>0.8728937347230172</v>
       </c>
       <c r="M11">
-        <v>0.8516008187684548</v>
+        <v>0.8736812088820934</v>
       </c>
       <c r="N11">
-        <v>0.8516008187684548</v>
+        <v>0.8736812088820934</v>
       </c>
       <c r="O11">
-        <v>0.8551371687306193</v>
+        <v>0.8736812088820934</v>
       </c>
       <c r="P11">
-        <v>0.8643448759769321</v>
+        <v>0.878841696278182</v>
       </c>
       <c r="Q11">
-        <v>0.868702695244849</v>
+        <v>0.878841696278182</v>
       </c>
       <c r="R11">
-        <v>0.868702695244849</v>
+        <v>0.878841696278182</v>
       </c>
       <c r="S11">
-        <v>0.868702695244849</v>
+        <v>0.878841696278182</v>
       </c>
       <c r="T11">
-        <v>0.9058591373878525</v>
+        <v>0.913740828115847</v>
       </c>
       <c r="U11">
-        <v>0.9058591373878525</v>
+        <v>0.913740828115847</v>
       </c>
       <c r="V11">
-        <v>0.9488326623364672</v>
+        <v>0.9548295838446372</v>
       </c>
       <c r="W11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="X11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="Y11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="Z11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AA11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AB11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AC11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AD11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AE11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AF11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AG11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AH11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AI11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AJ11">
-        <v>0.9824741394048764</v>
+        <v>0.9859886431185778</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -3204,16 +3204,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.616179014361671</v>
+        <v>0.5287764700542563</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>21</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5557558990126259</v>
+        <v>0.5217946509323624</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7711153437768284</v>
+        <v>0.7111042885512902</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.7281302339748794</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3368,16 +3368,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7080498592684104</v>
+      </c>
+      <c r="G6">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5125514968849987</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7085775935541092</v>
+        <v>0.6027860951610045</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6218472194259734</v>
+        <v>0.6212539688846495</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6813214827440905</v>
+        <v>0.6685263276509349</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7338302660146657</v>
+        <v>0.7032020932297582</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6847928665902455</v>
+        <v>0.7101011583536203</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8065473849260222</v>
+        <v>0.8390369153238935</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7657479323353702</v>
+        <v>0.7410764647458197</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7711153437768284</v>
+        <v>0.7111042885512902</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.7281302339748794</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7817505274476652</v>
+        <v>0.7080498592684104</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3873,16 +3873,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7085775935541092</v>
+        <v>0.711436035833757</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7750661809398322</v>
+        <v>0.7744183375096404</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8361858377326674</v>
+        <v>0.8212295646247089</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7338302660146657</v>
+        <v>0.7032020932297582</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -4037,16 +4037,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8041534028750219</v>
+        <v>0.7101011583536203</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>21</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8065473849260222</v>
+        <v>0.8390369153238935</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8396980858979928</v>
+        <v>0.8206544756876433</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -4214,16 +4214,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8242603135931064</v>
+        <v>0.8312297955850563</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -4255,16 +4255,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8120721377693281</v>
+        <v>0.8125305246040557</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -4296,16 +4296,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8117267477092541</v>
+        <v>0.8047249355585347</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -4337,16 +4337,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.830554035763587</v>
+        <v>0.8014014279246492</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8315832231739051</v>
+        <v>0.8309389195543123</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8361858377326674</v>
+        <v>0.8212295646247089</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -4460,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8531651095506277</v>
+      </c>
+      <c r="G10">
         <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8051095901262819</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
       </c>
       <c r="H10">
         <v>21</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8041534028750219</v>
+        <v>0.8324689479448614</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9056125556263324</v>
+        <v>0.9171759242683776</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.921266672147002</v>
+        <v>0.9006721822523186</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.950101842357238</v>
+        <v>0.9205830273773045</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9450358878543259</v>
+        <v>0.908992881110353</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4760,16 +4760,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9299167591907591</v>
+        <v>0.9002474924619903</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>21</v>
@@ -4801,16 +4801,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9195001440166766</v>
+        <v>0.9148779637598818</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9440878209252156</v>
+        <v>0.9437222423742285</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9291390503932495</v>
+        <v>0.9241557089109567</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9275735202220001</v>
+        <v>0.9133839932474852</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9058591373878525</v>
+        <v>0.913740828115847</v>
       </c>
       <c r="G11">
         <v>15</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Signal_Value_124</t>
-  </si>
-  <si>
-    <t>Signal_Value_125</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -568,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -686,13 +683,10 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -802,13 +796,10 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -918,13 +909,10 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1034,13 +1022,10 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1150,13 +1135,10 @@
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1266,129 +1248,123 @@
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.005298349535039483</v>
+      </c>
+      <c r="G7">
+        <v>0.1508483242301047</v>
+      </c>
+      <c r="H7">
+        <v>0.1405326493782038</v>
+      </c>
+      <c r="I7">
+        <v>0.3120839732408696</v>
+      </c>
+      <c r="J7">
+        <v>4.906539731378454E-05</v>
+      </c>
+      <c r="K7">
+        <v>0.1087232357549484</v>
+      </c>
+      <c r="L7">
+        <v>0.0275238799838982</v>
+      </c>
+      <c r="M7">
+        <v>0.01899223325337546</v>
+      </c>
+      <c r="N7">
+        <v>0.002350969720240833</v>
+      </c>
+      <c r="O7">
+        <v>0.001171014874409122</v>
+      </c>
+      <c r="P7">
+        <v>0.02655490458702164</v>
+      </c>
+      <c r="Q7">
+        <v>0.01098517944578718</v>
+      </c>
+      <c r="R7">
+        <v>0.002488528353416283</v>
+      </c>
+      <c r="S7">
+        <v>0.003005630063456896</v>
+      </c>
+      <c r="T7">
+        <v>0.03798160106064788</v>
+      </c>
+      <c r="U7">
+        <v>0.01653792080614259</v>
+      </c>
+      <c r="V7">
+        <v>0.02855530006392817</v>
+      </c>
+      <c r="W7">
+        <v>0.0275238799838982</v>
+      </c>
+      <c r="X7">
+        <v>0.0002251606381524403</v>
+      </c>
+      <c r="Y7">
+        <v>0.0001545203383064322</v>
+      </c>
+      <c r="Z7">
+        <v>0.000799344652040642</v>
+      </c>
+      <c r="AA7">
+        <v>0.00924911035094059</v>
+      </c>
+      <c r="AB7">
+        <v>1.98539713962728E-05</v>
+      </c>
+      <c r="AC7">
+        <v>0.003319000346474372</v>
+      </c>
+      <c r="AD7">
+        <v>0.00257940914509669</v>
+      </c>
+      <c r="AE7">
+        <v>0.0003855244476339855</v>
+      </c>
+      <c r="AF7">
+        <v>0.0001582656416773186</v>
+      </c>
+      <c r="AG7">
+        <v>0.005661147523478109</v>
+      </c>
+      <c r="AH7">
+        <v>0.01540379514759301</v>
+      </c>
+      <c r="AI7">
+        <v>0.009698609299318628</v>
+      </c>
+      <c r="AJ7">
+        <v>0.003958021828773872</v>
+      </c>
+      <c r="AK7">
+        <v>0.02718159693641543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.1506786314582271</v>
-      </c>
-      <c r="H7">
-        <v>0.1403745609477622</v>
-      </c>
-      <c r="I7">
-        <v>0.3117329027550151</v>
-      </c>
-      <c r="J7">
-        <v>4.901020251254334E-05</v>
-      </c>
-      <c r="K7">
-        <v>0.10860093047024</v>
-      </c>
-      <c r="L7">
-        <v>0.02749291773416072</v>
-      </c>
-      <c r="M7">
-        <v>0.01897086845054217</v>
-      </c>
-      <c r="N7">
-        <v>0.002348325059980509</v>
-      </c>
-      <c r="O7">
-        <v>0.001169697572669362</v>
-      </c>
-      <c r="P7">
-        <v>0.02652503236013869</v>
-      </c>
-      <c r="Q7">
-        <v>0.01097282196313537</v>
-      </c>
-      <c r="R7">
-        <v>0.002485728950265189</v>
-      </c>
-      <c r="S7">
-        <v>0.003002248960621915</v>
-      </c>
-      <c r="T7">
-        <v>0.03793887467838793</v>
-      </c>
-      <c r="U7">
-        <v>0.01651931691619547</v>
-      </c>
-      <c r="V7">
-        <v>0.02852317754586658</v>
-      </c>
-      <c r="W7">
-        <v>0.02749291773416072</v>
-      </c>
-      <c r="X7">
-        <v>0.0002249073497383939</v>
-      </c>
-      <c r="Y7">
-        <v>0.0001543465148009177</v>
-      </c>
-      <c r="Z7">
-        <v>0.0007984454507377269</v>
-      </c>
-      <c r="AA7">
-        <v>0.009238705812601417</v>
-      </c>
-      <c r="AB7">
-        <v>1.983163720425439E-05</v>
-      </c>
-      <c r="AC7">
-        <v>0.003315266726153893</v>
-      </c>
-      <c r="AD7">
-        <v>0.002576507508039257</v>
-      </c>
-      <c r="AE7">
-        <v>0.0003850907622584306</v>
-      </c>
-      <c r="AF7">
-        <v>0.000158087604993343</v>
-      </c>
-      <c r="AG7">
-        <v>0.005654779167580425</v>
-      </c>
-      <c r="AH7">
-        <v>0.01538646706185278</v>
-      </c>
-      <c r="AI7">
-        <v>0.009687699109207082</v>
-      </c>
-      <c r="AJ7">
-        <v>0.003953569358395402</v>
-      </c>
-      <c r="AK7">
-        <v>0.0271510197288015</v>
-      </c>
-      <c r="AL7">
-        <v>0.006417312447753299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1498,13 +1474,10 @@
       <c r="AK8">
         <v>0.02324205865010799</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1614,13 +1587,10 @@
       <c r="AK9">
         <v>0.01090858638828325</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1730,13 +1700,10 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1845,9 +1812,6 @@
       </c>
       <c r="AK11">
         <v>0.01401135688142213</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1857,15 +1821,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1975,13 +1939,10 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2091,13 +2052,10 @@
       <c r="AK2">
         <v>1</v>
       </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2207,13 +2165,10 @@
       <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2323,13 +2278,10 @@
       <c r="AK4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AL4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2439,13 +2391,10 @@
       <c r="AK5">
         <v>1</v>
       </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2555,129 +2504,123 @@
       <c r="AK6">
         <v>1</v>
       </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.005298349535039483</v>
+      </c>
+      <c r="G7">
+        <v>0.1561466737651442</v>
+      </c>
+      <c r="H7">
+        <v>0.296679323143348</v>
+      </c>
+      <c r="I7">
+        <v>0.6087632963842176</v>
+      </c>
+      <c r="J7">
+        <v>0.6088123617815313</v>
+      </c>
+      <c r="K7">
+        <v>0.7175355975364797</v>
+      </c>
+      <c r="L7">
+        <v>0.7450594775203778</v>
+      </c>
+      <c r="M7">
+        <v>0.7640517107737533</v>
+      </c>
+      <c r="N7">
+        <v>0.7664026804939942</v>
+      </c>
+      <c r="O7">
+        <v>0.7675736953684033</v>
+      </c>
+      <c r="P7">
+        <v>0.7941285999554248</v>
+      </c>
+      <c r="Q7">
+        <v>0.805113779401212</v>
+      </c>
+      <c r="R7">
+        <v>0.8076023077546283</v>
+      </c>
+      <c r="S7">
+        <v>0.8106079378180852</v>
+      </c>
+      <c r="T7">
+        <v>0.848589538878733</v>
+      </c>
+      <c r="U7">
+        <v>0.8651274596848756</v>
+      </c>
+      <c r="V7">
+        <v>0.8936827597488037</v>
+      </c>
+      <c r="W7">
+        <v>0.9212066397327019</v>
+      </c>
+      <c r="X7">
+        <v>0.9214318003708544</v>
+      </c>
+      <c r="Y7">
+        <v>0.9215863207091608</v>
+      </c>
+      <c r="Z7">
+        <v>0.9223856653612015</v>
+      </c>
+      <c r="AA7">
+        <v>0.931634775712142</v>
+      </c>
+      <c r="AB7">
+        <v>0.9316546296835383</v>
+      </c>
+      <c r="AC7">
+        <v>0.9349736300300127</v>
+      </c>
+      <c r="AD7">
+        <v>0.9375530391751093</v>
+      </c>
+      <c r="AE7">
+        <v>0.9379385636227433</v>
+      </c>
+      <c r="AF7">
+        <v>0.9380968292644206</v>
+      </c>
+      <c r="AG7">
+        <v>0.9437579767878987</v>
+      </c>
+      <c r="AH7">
+        <v>0.9591617719354918</v>
+      </c>
+      <c r="AI7">
+        <v>0.9688603812348104</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9728184030635844</v>
+      </c>
+      <c r="AK7">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.1506786314582271</v>
-      </c>
-      <c r="H7">
-        <v>0.2910531924059894</v>
-      </c>
-      <c r="I7">
-        <v>0.6027860951610045</v>
-      </c>
-      <c r="J7">
-        <v>0.602835105363517</v>
-      </c>
-      <c r="K7">
-        <v>0.711436035833757</v>
-      </c>
-      <c r="L7">
-        <v>0.7389289535679178</v>
-      </c>
-      <c r="M7">
-        <v>0.75789982201846</v>
-      </c>
-      <c r="N7">
-        <v>0.7602481470784405</v>
-      </c>
-      <c r="O7">
-        <v>0.7614178446511098</v>
-      </c>
-      <c r="P7">
-        <v>0.7879428770112485</v>
-      </c>
-      <c r="Q7">
-        <v>0.798915698974384</v>
-      </c>
-      <c r="R7">
-        <v>0.8014014279246492</v>
-      </c>
-      <c r="S7">
-        <v>0.8044036768852711</v>
-      </c>
-      <c r="T7">
-        <v>0.8423425515636591</v>
-      </c>
-      <c r="U7">
-        <v>0.8588618684798546</v>
-      </c>
-      <c r="V7">
-        <v>0.8873850460257211</v>
-      </c>
-      <c r="W7">
-        <v>0.9148779637598818</v>
-      </c>
-      <c r="X7">
-        <v>0.9151028711096202</v>
-      </c>
-      <c r="Y7">
-        <v>0.9152572176244211</v>
-      </c>
-      <c r="Z7">
-        <v>0.9160556630751588</v>
-      </c>
-      <c r="AA7">
-        <v>0.9252943688877603</v>
-      </c>
-      <c r="AB7">
-        <v>0.9253142005249645</v>
-      </c>
-      <c r="AC7">
-        <v>0.9286294672511184</v>
-      </c>
-      <c r="AD7">
-        <v>0.9312059747591577</v>
-      </c>
-      <c r="AE7">
-        <v>0.9315910655214161</v>
-      </c>
-      <c r="AF7">
-        <v>0.9317491531264095</v>
-      </c>
-      <c r="AG7">
-        <v>0.9374039322939899</v>
-      </c>
-      <c r="AH7">
-        <v>0.9527903993558426</v>
-      </c>
-      <c r="AI7">
-        <v>0.9624780984650497</v>
-      </c>
-      <c r="AJ7">
-        <v>0.9664316678234451</v>
-      </c>
-      <c r="AK7">
-        <v>0.9935826875522467</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2787,13 +2730,10 @@
       <c r="AK8">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AL8">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2903,13 +2843,10 @@
       <c r="AK9">
         <v>1</v>
       </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3019,13 +2956,10 @@
       <c r="AK10">
         <v>1</v>
       </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3133,9 +3067,6 @@
         <v>0.9859886431185778</v>
       </c>
       <c r="AK11">
-        <v>1</v>
-      </c>
-      <c r="AL11">
         <v>1</v>
       </c>
     </row>
@@ -3154,48 +3085,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3222,21 +3153,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3263,21 +3194,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3304,21 +3235,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3345,21 +3276,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3386,21 +3317,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3415,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6027860951610045</v>
+        <v>0.6087632963842176</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3427,21 +3358,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3468,21 +3399,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3509,21 +3440,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3550,21 +3481,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3591,16 +3522,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3618,48 +3549,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3686,21 +3617,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3727,21 +3658,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3768,21 +3699,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3809,21 +3740,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3850,21 +3781,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3879,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.711436035833757</v>
+        <v>0.7175355975364797</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3891,21 +3822,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3932,21 +3863,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3973,21 +3904,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -4014,21 +3945,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -4055,16 +3986,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4082,48 +4013,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4150,21 +4081,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4191,21 +4122,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4232,21 +4163,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4273,21 +4204,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4314,21 +4245,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4337,16 +4268,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8014014279246492</v>
+        <v>0.805113779401212</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -4355,21 +4286,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4396,21 +4327,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4437,21 +4368,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4478,21 +4409,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4519,16 +4450,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4546,48 +4477,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4614,21 +4545,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4655,21 +4586,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4696,21 +4627,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4737,21 +4668,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4778,21 +4709,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4807,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9148779637598818</v>
+        <v>0.9212066397327019</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4819,21 +4750,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4860,21 +4791,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4901,21 +4832,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4942,21 +4873,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>62</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4983,16 +4914,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="64">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Signal_Value_124</t>
+  </si>
+  <si>
+    <t>Signal_Value_125</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -565,15 +568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,10 +686,13 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -796,10 +802,13 @@
       <c r="AK2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -909,10 +918,13 @@
       <c r="AK3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -921,31 +933,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02343998151366644</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1764896733302328</v>
+        <v>0.1769856529589771</v>
       </c>
       <c r="F4">
-        <v>0.1807296386153773</v>
+        <v>0.1812375335951353</v>
       </c>
       <c r="G4">
-        <v>0.3304449950920136</v>
+        <v>0.3313736272487489</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05452325969819024</v>
+        <v>0.05467648354178838</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001894424240110381</v>
+        <v>0.001899748040724687</v>
       </c>
       <c r="L4">
-        <v>0.001421492054284055</v>
+        <v>0.001425486798497941</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -954,78 +966,81 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02422206068047304</v>
+        <v>0.02429013066120922</v>
       </c>
       <c r="P4">
-        <v>0.03806427036070836</v>
+        <v>0.03817124037388642</v>
       </c>
       <c r="Q4">
-        <v>0.0004201532657197855</v>
+        <v>0.0004213340003022419</v>
       </c>
       <c r="R4">
-        <v>0.002076113154207626</v>
+        <v>0.002081947545603027</v>
       </c>
       <c r="S4">
-        <v>0.01369946669532312</v>
+        <v>0.01373796558467643</v>
       </c>
       <c r="T4">
-        <v>0.01832824631925254</v>
+        <v>0.01837975322406701</v>
       </c>
       <c r="U4">
-        <v>0.0548292523577452</v>
+        <v>0.05498333611639005</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.005227610561714834</v>
+        <v>0.005242301440204749</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002674357372553733</v>
+        <v>0.00268187297815116</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>9.600173344348558E-05</v>
+        <v>9.627152205612022E-05</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01720085583718911</v>
+        <v>0.01724919449594027</v>
       </c>
       <c r="AD4">
-        <v>0.00156095845846409</v>
+        <v>0.00156534513776439</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002974786372665701</v>
+        <v>0.00298314625805088</v>
       </c>
       <c r="AG4">
-        <v>0.01320035051082668</v>
+        <v>0.01323744676026789</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03648205177583774</v>
+        <v>0.03658457536350259</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.02069560635405521</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1034,28 +1049,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02377592178668267</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2064318253893464</v>
+        <v>0.2032455112866982</v>
       </c>
       <c r="F5">
-        <v>0.1662051769544467</v>
+        <v>0.1636397687463652</v>
       </c>
       <c r="G5">
-        <v>0.3317173098444037</v>
+        <v>0.3265971906938985</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04327992810243129</v>
+        <v>0.04261189426116539</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01026026176530243</v>
+        <v>0.01010189269261712</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1064,81 +1079,84 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006784259435481766</v>
+        <v>0.0006679543113400475</v>
       </c>
       <c r="O5">
-        <v>0.010535309006474</v>
+        <v>0.01037269452782096</v>
       </c>
       <c r="P5">
-        <v>0.01964636581142028</v>
+        <v>0.01934312045507736</v>
       </c>
       <c r="Q5">
-        <v>0.0003271657865236677</v>
+        <v>0.0003221159209928166</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.008988054474133613</v>
+        <v>0.008849322160585125</v>
       </c>
       <c r="T5">
-        <v>0.02599952908596186</v>
+        <v>0.02559822145797105</v>
       </c>
       <c r="U5">
-        <v>0.06114760715967816</v>
+        <v>0.06020378232710403</v>
       </c>
       <c r="V5">
-        <v>0.003620166644498726</v>
+        <v>0.003564288690546874</v>
       </c>
       <c r="W5">
-        <v>0.004675924027814859</v>
+        <v>0.004603750259818392</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0007304788624605362</v>
+        <v>0.000719203783645753</v>
       </c>
       <c r="Z5">
-        <v>0.0002965224978410135</v>
+        <v>0.0002919456172420976</v>
       </c>
       <c r="AA5">
-        <v>0.003321740979905505</v>
+        <v>0.003270469282289816</v>
       </c>
       <c r="AB5">
-        <v>0.003246223085427599</v>
+        <v>0.003196117020735629</v>
       </c>
       <c r="AC5">
-        <v>0.00638100202865834</v>
+        <v>0.006282510060597732</v>
       </c>
       <c r="AD5">
-        <v>0.001518791959391048</v>
+        <v>0.001495349119460389</v>
       </c>
       <c r="AE5">
-        <v>0.0003472636539069232</v>
+        <v>0.0003419035740079356</v>
       </c>
       <c r="AF5">
-        <v>0.0008075108066982096</v>
+        <v>0.0007950467253165212</v>
       </c>
       <c r="AG5">
-        <v>0.006087066045894355</v>
+        <v>0.005993111035085324</v>
       </c>
       <c r="AH5">
-        <v>0.003644930821360635</v>
+        <v>0.003588670627675026</v>
       </c>
       <c r="AI5">
-        <v>0.05632949747578968</v>
+        <v>0.05546004107359166</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.03884412428835116</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1248,10 +1266,13 @@
       <c r="AK6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1266,105 +1287,108 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.005298349535039483</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1508483242301047</v>
+        <v>0.1506786314582271</v>
       </c>
       <c r="H7">
-        <v>0.1405326493782038</v>
+        <v>0.1403745609477622</v>
       </c>
       <c r="I7">
-        <v>0.3120839732408696</v>
+        <v>0.3117329027550151</v>
       </c>
       <c r="J7">
-        <v>4.906539731378454E-05</v>
+        <v>4.901020251254334E-05</v>
       </c>
       <c r="K7">
-        <v>0.1087232357549484</v>
+        <v>0.10860093047024</v>
       </c>
       <c r="L7">
-        <v>0.0275238799838982</v>
+        <v>0.02749291773416072</v>
       </c>
       <c r="M7">
-        <v>0.01899223325337546</v>
+        <v>0.01897086845054217</v>
       </c>
       <c r="N7">
-        <v>0.002350969720240833</v>
+        <v>0.002348325059980509</v>
       </c>
       <c r="O7">
-        <v>0.001171014874409122</v>
+        <v>0.001169697572669362</v>
       </c>
       <c r="P7">
-        <v>0.02655490458702164</v>
+        <v>0.02652503236013869</v>
       </c>
       <c r="Q7">
-        <v>0.01098517944578718</v>
+        <v>0.01097282196313537</v>
       </c>
       <c r="R7">
-        <v>0.002488528353416283</v>
+        <v>0.002485728950265189</v>
       </c>
       <c r="S7">
-        <v>0.003005630063456896</v>
+        <v>0.003002248960621915</v>
       </c>
       <c r="T7">
-        <v>0.03798160106064788</v>
+        <v>0.03793887467838793</v>
       </c>
       <c r="U7">
-        <v>0.01653792080614259</v>
+        <v>0.01651931691619547</v>
       </c>
       <c r="V7">
-        <v>0.02855530006392817</v>
+        <v>0.02852317754586658</v>
       </c>
       <c r="W7">
-        <v>0.0275238799838982</v>
+        <v>0.02749291773416072</v>
       </c>
       <c r="X7">
-        <v>0.0002251606381524403</v>
+        <v>0.0002249073497383939</v>
       </c>
       <c r="Y7">
-        <v>0.0001545203383064322</v>
+        <v>0.0001543465148009177</v>
       </c>
       <c r="Z7">
-        <v>0.000799344652040642</v>
+        <v>0.0007984454507377269</v>
       </c>
       <c r="AA7">
-        <v>0.00924911035094059</v>
+        <v>0.009238705812601417</v>
       </c>
       <c r="AB7">
-        <v>1.98539713962728E-05</v>
+        <v>1.983163720425439E-05</v>
       </c>
       <c r="AC7">
-        <v>0.003319000346474372</v>
+        <v>0.003315266726153893</v>
       </c>
       <c r="AD7">
-        <v>0.00257940914509669</v>
+        <v>0.002576507508039257</v>
       </c>
       <c r="AE7">
-        <v>0.0003855244476339855</v>
+        <v>0.0003850907622584306</v>
       </c>
       <c r="AF7">
-        <v>0.0001582656416773186</v>
+        <v>0.000158087604993343</v>
       </c>
       <c r="AG7">
-        <v>0.005661147523478109</v>
+        <v>0.005654779167580425</v>
       </c>
       <c r="AH7">
-        <v>0.01540379514759301</v>
+        <v>0.01538646706185278</v>
       </c>
       <c r="AI7">
-        <v>0.009698609299318628</v>
+        <v>0.009687699109207082</v>
       </c>
       <c r="AJ7">
-        <v>0.003958021828773872</v>
+        <v>0.003953569358395402</v>
       </c>
       <c r="AK7">
-        <v>0.02718159693641543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>0.0271510197288015</v>
+      </c>
+      <c r="AL7">
+        <v>0.006417312447753299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1474,10 +1498,13 @@
       <c r="AK8">
         <v>0.02324205865010799</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1587,10 +1614,13 @@
       <c r="AK9">
         <v>0.01090858638828325</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1700,10 +1730,13 @@
       <c r="AK10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1718,100 +1751,103 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01346116491489788</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1195217095439556</v>
+        <v>0.105424069405583</v>
       </c>
       <c r="H11">
-        <v>0.1839836160998143</v>
+        <v>0.1548868538160933</v>
       </c>
       <c r="I11">
-        <v>0.3931346677949525</v>
+        <v>0.31537223086996</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.002329626373930934</v>
       </c>
       <c r="K11">
-        <v>0.122367789591241</v>
+        <v>0.1076079179964085</v>
       </c>
       <c r="L11">
-        <v>0.04042478677815592</v>
+        <v>0.04473157290132079</v>
       </c>
       <c r="M11">
-        <v>0.0007874741590761989</v>
+        <v>0.01431714749194156</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.004345614501852203</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01304220827457452</v>
       </c>
       <c r="P11">
-        <v>0.005160487396088493</v>
+        <v>0.0176726394797439</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.01371290435610627</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.0001932022773641274</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.009954657651297327</v>
       </c>
       <c r="T11">
-        <v>0.03489913183766506</v>
+        <v>0.04049163812974321</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.006067975788494011</v>
       </c>
       <c r="V11">
-        <v>0.04108875572879019</v>
+        <v>0.04524104826150172</v>
       </c>
       <c r="W11">
-        <v>0.03115905927394059</v>
+        <v>0.03762181294486656</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>9.635849269489998E-05</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.0008221026795787494</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.439407897933846E-05</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.477869696260047E-05</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.001369487787704158</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.223590614748885E-05</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.003010918998758849</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.001053641940076577</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.002788753923850878</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.004809212507519866</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.01006709970595948</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.005296926429893289</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.004607318163201878</v>
       </c>
       <c r="AK11">
-        <v>0.01401135688142213</v>
+        <v>0.0244640713902981</v>
+      </c>
+      <c r="AL11">
+        <v>0.008549578777592007</v>
       </c>
     </row>
   </sheetData>
@@ -1821,15 +1857,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1939,10 +1975,13 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2052,10 +2091,13 @@
       <c r="AK2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2165,10 +2207,13 @@
       <c r="AK3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2177,100 +2222,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02343998151366644</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1999296548438992</v>
+        <v>0.1769856529589771</v>
       </c>
       <c r="F4">
-        <v>0.3806592934592765</v>
+        <v>0.3582231865541124</v>
       </c>
       <c r="G4">
-        <v>0.7111042885512902</v>
+        <v>0.6895968138028612</v>
       </c>
       <c r="H4">
-        <v>0.7111042885512902</v>
+        <v>0.6895968138028612</v>
       </c>
       <c r="I4">
-        <v>0.7656275482494804</v>
+        <v>0.7442732973446495</v>
       </c>
       <c r="J4">
-        <v>0.7656275482494804</v>
+        <v>0.7442732973446495</v>
       </c>
       <c r="K4">
-        <v>0.7675219724895908</v>
+        <v>0.7461730453853742</v>
       </c>
       <c r="L4">
-        <v>0.7689434645438749</v>
+        <v>0.7475985321838722</v>
       </c>
       <c r="M4">
-        <v>0.7689434645438749</v>
+        <v>0.7475985321838722</v>
       </c>
       <c r="N4">
-        <v>0.7689434645438749</v>
+        <v>0.7475985321838722</v>
       </c>
       <c r="O4">
-        <v>0.7931655252243479</v>
+        <v>0.7718886628450814</v>
       </c>
       <c r="P4">
-        <v>0.8312297955850563</v>
+        <v>0.8100599032189678</v>
       </c>
       <c r="Q4">
-        <v>0.831649948850776</v>
+        <v>0.81048123721927</v>
       </c>
       <c r="R4">
-        <v>0.8337260620049837</v>
+        <v>0.812563184764873</v>
       </c>
       <c r="S4">
-        <v>0.8474255287003067</v>
+        <v>0.8263011503495494</v>
       </c>
       <c r="T4">
-        <v>0.8657537750195593</v>
+        <v>0.8446809035736165</v>
       </c>
       <c r="U4">
-        <v>0.9205830273773045</v>
+        <v>0.8996642396900065</v>
       </c>
       <c r="V4">
-        <v>0.9205830273773045</v>
+        <v>0.8996642396900065</v>
       </c>
       <c r="W4">
-        <v>0.9258106379390193</v>
+        <v>0.9049065411302113</v>
       </c>
       <c r="X4">
-        <v>0.9258106379390193</v>
+        <v>0.9049065411302113</v>
       </c>
       <c r="Y4">
-        <v>0.928484995311573</v>
+        <v>0.9075884141083624</v>
       </c>
       <c r="Z4">
-        <v>0.928484995311573</v>
+        <v>0.9075884141083624</v>
       </c>
       <c r="AA4">
-        <v>0.9285809970450165</v>
+        <v>0.9076846856304186</v>
       </c>
       <c r="AB4">
-        <v>0.9285809970450165</v>
+        <v>0.9076846856304186</v>
       </c>
       <c r="AC4">
-        <v>0.9457818528822056</v>
+        <v>0.9249338801263589</v>
       </c>
       <c r="AD4">
-        <v>0.9473428113406697</v>
+        <v>0.9264992252641233</v>
       </c>
       <c r="AE4">
-        <v>0.9473428113406697</v>
+        <v>0.9264992252641233</v>
       </c>
       <c r="AF4">
-        <v>0.9503175977133353</v>
+        <v>0.9294823715221742</v>
       </c>
       <c r="AG4">
-        <v>0.963517948224162</v>
+        <v>0.942719818282442</v>
       </c>
       <c r="AH4">
-        <v>0.963517948224162</v>
+        <v>0.942719818282442</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0.9793043936459446</v>
       </c>
       <c r="AJ4">
         <v>0.9999999999999998</v>
@@ -2278,10 +2323,13 @@
       <c r="AK4">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2290,100 +2338,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02377592178668267</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.230207747176029</v>
+        <v>0.2032455112866982</v>
       </c>
       <c r="F5">
-        <v>0.3964129241304757</v>
+        <v>0.3668852800330634</v>
       </c>
       <c r="G5">
-        <v>0.7281302339748794</v>
+        <v>0.6934824707269619</v>
       </c>
       <c r="H5">
-        <v>0.7281302339748794</v>
+        <v>0.6934824707269619</v>
       </c>
       <c r="I5">
-        <v>0.7714101620773107</v>
+        <v>0.7360943649881273</v>
       </c>
       <c r="J5">
-        <v>0.7714101620773107</v>
+        <v>0.7360943649881273</v>
       </c>
       <c r="K5">
-        <v>0.7816704238426132</v>
+        <v>0.7461962576807444</v>
       </c>
       <c r="L5">
-        <v>0.7816704238426132</v>
+        <v>0.7461962576807444</v>
       </c>
       <c r="M5">
-        <v>0.7816704238426132</v>
+        <v>0.7461962576807444</v>
       </c>
       <c r="N5">
-        <v>0.7823488497861614</v>
+        <v>0.7468642119920844</v>
       </c>
       <c r="O5">
-        <v>0.7928841587926354</v>
+        <v>0.7572369065199054</v>
       </c>
       <c r="P5">
-        <v>0.8125305246040557</v>
+        <v>0.7765800269749827</v>
       </c>
       <c r="Q5">
-        <v>0.8128576903905794</v>
+        <v>0.7769021428959756</v>
       </c>
       <c r="R5">
-        <v>0.8128576903905794</v>
+        <v>0.7769021428959756</v>
       </c>
       <c r="S5">
-        <v>0.8218457448647131</v>
+        <v>0.7857514650565607</v>
       </c>
       <c r="T5">
-        <v>0.8478452739506749</v>
+        <v>0.8113496865145318</v>
       </c>
       <c r="U5">
-        <v>0.908992881110353</v>
+        <v>0.8715534688416358</v>
       </c>
       <c r="V5">
-        <v>0.9126130477548517</v>
+        <v>0.8751177575321827</v>
       </c>
       <c r="W5">
-        <v>0.9172889717826666</v>
+        <v>0.8797215077920011</v>
       </c>
       <c r="X5">
-        <v>0.9172889717826666</v>
+        <v>0.8797215077920011</v>
       </c>
       <c r="Y5">
-        <v>0.9180194506451271</v>
+        <v>0.8804407115756469</v>
       </c>
       <c r="Z5">
-        <v>0.9183159731429682</v>
+        <v>0.880732657192889</v>
       </c>
       <c r="AA5">
-        <v>0.9216377141228737</v>
+        <v>0.8840031264751788</v>
       </c>
       <c r="AB5">
-        <v>0.9248839372083012</v>
+        <v>0.8871992434959144</v>
       </c>
       <c r="AC5">
-        <v>0.9312649392369595</v>
+        <v>0.8934817535565122</v>
       </c>
       <c r="AD5">
-        <v>0.9327837311963506</v>
+        <v>0.8949771026759725</v>
       </c>
       <c r="AE5">
-        <v>0.9331309948502575</v>
+        <v>0.8953190062499805</v>
       </c>
       <c r="AF5">
-        <v>0.9339385056569557</v>
+        <v>0.896114052975297</v>
       </c>
       <c r="AG5">
-        <v>0.9400255717028501</v>
+        <v>0.9021071640103824</v>
       </c>
       <c r="AH5">
-        <v>0.9436705025242107</v>
+        <v>0.9056958346380574</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9611558757116491</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -2391,10 +2439,13 @@
       <c r="AK5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2504,10 +2555,13 @@
       <c r="AK6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2522,105 +2576,108 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.005298349535039483</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1561466737651442</v>
+        <v>0.1506786314582271</v>
       </c>
       <c r="H7">
-        <v>0.296679323143348</v>
+        <v>0.2910531924059894</v>
       </c>
       <c r="I7">
-        <v>0.6087632963842176</v>
+        <v>0.6027860951610045</v>
       </c>
       <c r="J7">
-        <v>0.6088123617815313</v>
+        <v>0.602835105363517</v>
       </c>
       <c r="K7">
-        <v>0.7175355975364797</v>
+        <v>0.711436035833757</v>
       </c>
       <c r="L7">
-        <v>0.7450594775203778</v>
+        <v>0.7389289535679178</v>
       </c>
       <c r="M7">
-        <v>0.7640517107737533</v>
+        <v>0.75789982201846</v>
       </c>
       <c r="N7">
-        <v>0.7664026804939942</v>
+        <v>0.7602481470784405</v>
       </c>
       <c r="O7">
-        <v>0.7675736953684033</v>
+        <v>0.7614178446511098</v>
       </c>
       <c r="P7">
-        <v>0.7941285999554248</v>
+        <v>0.7879428770112485</v>
       </c>
       <c r="Q7">
-        <v>0.805113779401212</v>
+        <v>0.798915698974384</v>
       </c>
       <c r="R7">
-        <v>0.8076023077546283</v>
+        <v>0.8014014279246492</v>
       </c>
       <c r="S7">
-        <v>0.8106079378180852</v>
+        <v>0.8044036768852711</v>
       </c>
       <c r="T7">
-        <v>0.848589538878733</v>
+        <v>0.8423425515636591</v>
       </c>
       <c r="U7">
-        <v>0.8651274596848756</v>
+        <v>0.8588618684798546</v>
       </c>
       <c r="V7">
-        <v>0.8936827597488037</v>
+        <v>0.8873850460257211</v>
       </c>
       <c r="W7">
-        <v>0.9212066397327019</v>
+        <v>0.9148779637598818</v>
       </c>
       <c r="X7">
-        <v>0.9214318003708544</v>
+        <v>0.9151028711096202</v>
       </c>
       <c r="Y7">
-        <v>0.9215863207091608</v>
+        <v>0.9152572176244211</v>
       </c>
       <c r="Z7">
-        <v>0.9223856653612015</v>
+        <v>0.9160556630751588</v>
       </c>
       <c r="AA7">
-        <v>0.931634775712142</v>
+        <v>0.9252943688877603</v>
       </c>
       <c r="AB7">
-        <v>0.9316546296835383</v>
+        <v>0.9253142005249645</v>
       </c>
       <c r="AC7">
-        <v>0.9349736300300127</v>
+        <v>0.9286294672511184</v>
       </c>
       <c r="AD7">
-        <v>0.9375530391751093</v>
+        <v>0.9312059747591577</v>
       </c>
       <c r="AE7">
-        <v>0.9379385636227433</v>
+        <v>0.9315910655214161</v>
       </c>
       <c r="AF7">
-        <v>0.9380968292644206</v>
+        <v>0.9317491531264095</v>
       </c>
       <c r="AG7">
-        <v>0.9437579767878987</v>
+        <v>0.9374039322939899</v>
       </c>
       <c r="AH7">
-        <v>0.9591617719354918</v>
+        <v>0.9527903993558426</v>
       </c>
       <c r="AI7">
-        <v>0.9688603812348104</v>
+        <v>0.9624780984650497</v>
       </c>
       <c r="AJ7">
-        <v>0.9728184030635844</v>
+        <v>0.9664316678234451</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>0.9935826875522467</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2730,10 +2787,13 @@
       <c r="AK8">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2843,10 +2903,13 @@
       <c r="AK9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2956,10 +3019,13 @@
       <c r="AK10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2974,99 +3040,102 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01346116491489788</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1329828744588535</v>
+        <v>0.105424069405583</v>
       </c>
       <c r="H11">
-        <v>0.3169664905586678</v>
+        <v>0.2603109232216763</v>
       </c>
       <c r="I11">
-        <v>0.7101011583536203</v>
+        <v>0.5756831540916363</v>
       </c>
       <c r="J11">
-        <v>0.7101011583536203</v>
+        <v>0.5780127804655673</v>
       </c>
       <c r="K11">
-        <v>0.8324689479448614</v>
+        <v>0.6856206984619757</v>
       </c>
       <c r="L11">
-        <v>0.8728937347230172</v>
+        <v>0.7303522713632965</v>
       </c>
       <c r="M11">
-        <v>0.8736812088820934</v>
+        <v>0.7446694188552381</v>
       </c>
       <c r="N11">
-        <v>0.8736812088820934</v>
+        <v>0.7490150333570903</v>
       </c>
       <c r="O11">
-        <v>0.8736812088820934</v>
+        <v>0.7620572416316648</v>
       </c>
       <c r="P11">
-        <v>0.878841696278182</v>
+        <v>0.7797298811114086</v>
       </c>
       <c r="Q11">
-        <v>0.878841696278182</v>
+        <v>0.7934427854675149</v>
       </c>
       <c r="R11">
-        <v>0.878841696278182</v>
+        <v>0.793635987744879</v>
       </c>
       <c r="S11">
-        <v>0.878841696278182</v>
+        <v>0.8035906453961763</v>
       </c>
       <c r="T11">
-        <v>0.913740828115847</v>
+        <v>0.8440822835259195</v>
       </c>
       <c r="U11">
-        <v>0.913740828115847</v>
+        <v>0.8501502593144136</v>
       </c>
       <c r="V11">
-        <v>0.9548295838446372</v>
+        <v>0.8953913075759153</v>
       </c>
       <c r="W11">
-        <v>0.9859886431185778</v>
+        <v>0.9330131205207819</v>
       </c>
       <c r="X11">
-        <v>0.9859886431185778</v>
+        <v>0.9331094790134767</v>
       </c>
       <c r="Y11">
-        <v>0.9859886431185778</v>
+        <v>0.9339315816930555</v>
       </c>
       <c r="Z11">
-        <v>0.9859886431185778</v>
+        <v>0.9339459757720348</v>
       </c>
       <c r="AA11">
-        <v>0.9859886431185778</v>
+        <v>0.9339707544689974</v>
       </c>
       <c r="AB11">
-        <v>0.9859886431185778</v>
+        <v>0.9353402422567015</v>
       </c>
       <c r="AC11">
-        <v>0.9859886431185778</v>
+        <v>0.9353524781628491</v>
       </c>
       <c r="AD11">
-        <v>0.9859886431185778</v>
+        <v>0.9383633971616079</v>
       </c>
       <c r="AE11">
-        <v>0.9859886431185778</v>
+        <v>0.9394170391016845</v>
       </c>
       <c r="AF11">
-        <v>0.9859886431185778</v>
+        <v>0.9422057930255354</v>
       </c>
       <c r="AG11">
-        <v>0.9859886431185778</v>
+        <v>0.9470150055330553</v>
       </c>
       <c r="AH11">
-        <v>0.9859886431185778</v>
+        <v>0.9570821052390147</v>
       </c>
       <c r="AI11">
-        <v>0.9859886431185778</v>
+        <v>0.962379031668908</v>
       </c>
       <c r="AJ11">
-        <v>0.9859886431185778</v>
+        <v>0.96698634983211</v>
       </c>
       <c r="AK11">
+        <v>0.991450421222408</v>
+      </c>
+      <c r="AL11">
         <v>1</v>
       </c>
     </row>
@@ -3085,48 +3154,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3153,21 +3222,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3194,21 +3263,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3223,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7111042885512902</v>
+        <v>0.6895968138028612</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3235,21 +3304,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3264,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7281302339748794</v>
+        <v>0.6934824707269619</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3276,21 +3345,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3317,21 +3386,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3346,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6087632963842176</v>
+        <v>0.6027860951610045</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3358,21 +3427,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3399,21 +3468,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3440,21 +3509,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3481,21 +3550,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3510,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7101011583536203</v>
+        <v>0.5756831540916363</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3522,16 +3591,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3549,48 +3618,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3617,21 +3686,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3658,21 +3727,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3681,16 +3750,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7442732973446495</v>
+      </c>
+      <c r="G4">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7111042885512902</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -3699,21 +3768,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3722,16 +3791,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7360943649881273</v>
+      </c>
+      <c r="G5">
         <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7281302339748794</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -3740,21 +3809,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3781,21 +3850,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3810,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7175355975364797</v>
+        <v>0.711436035833757</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3822,21 +3891,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3863,21 +3932,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3904,21 +3973,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3945,21 +4014,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3968,16 +4037,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7101011583536203</v>
+        <v>0.7303522713632965</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>21</v>
@@ -3986,16 +4055,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4013,48 +4082,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4081,21 +4150,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4122,21 +4191,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4151,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8312297955850563</v>
+        <v>0.8100599032189678</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -4163,21 +4232,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4186,16 +4255,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8125305246040557</v>
+        <v>0.8113496865145318</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -4204,21 +4273,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4245,21 +4314,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4268,16 +4337,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.805113779401212</v>
+        <v>0.8014014279246492</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>21</v>
@@ -4286,21 +4355,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4327,21 +4396,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4368,21 +4437,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4409,21 +4478,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4432,16 +4501,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8324689479448614</v>
+        <v>0.8035906453961763</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>21</v>
@@ -4450,16 +4519,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4477,48 +4546,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4545,21 +4614,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4586,21 +4655,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4609,16 +4678,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9049065411302113</v>
+      </c>
+      <c r="G4">
         <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9205830273773045</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -4627,21 +4696,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4650,16 +4719,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.908992881110353</v>
+        <v>0.9021071640103824</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -4668,21 +4737,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4709,21 +4778,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4738,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9212066397327019</v>
+        <v>0.9148779637598818</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4750,21 +4819,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4791,21 +4860,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4832,21 +4901,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4873,21 +4942,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4896,16 +4965,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.913740828115847</v>
+        <v>0.9330131205207819</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>21</v>
@@ -4914,16 +4983,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/21_11R22.xlsx
@@ -165,40 +165,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -208,9 +211,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.146728382372551</v>
+        <v>0.1567929468403226</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3820480876817053</v>
+        <v>0.448588309993288</v>
       </c>
       <c r="G2">
-        <v>0.1312331496295026</v>
+        <v>0.137578928790039</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02530035232232037</v>
+        <v>0.00622274245005794</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01241918634857072</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -734,25 +734,25 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1413077569692433</v>
+        <v>0.1500713960207839</v>
       </c>
       <c r="P2">
-        <v>0.04915691470687197</v>
+        <v>0.03580477118596933</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003194213883827319</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02578788035378479</v>
+        <v>0.006827274989317738</v>
       </c>
       <c r="U2">
-        <v>0.06714799572231989</v>
+        <v>0.05811362973022156</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01567608000930275</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -817,31 +817,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2081706359741957</v>
+        <v>0.2570452732525011</v>
       </c>
       <c r="E3">
-        <v>0.0194266730984535</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2941973418597132</v>
+        <v>0.3803267757176271</v>
       </c>
       <c r="G3">
-        <v>0.11796542862059</v>
+        <v>0.1277757240089228</v>
       </c>
       <c r="H3">
-        <v>0.01326374456925716</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009115194418677976</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001955529884740682</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002581102335510627</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07440081398468072</v>
+        <v>0.06534498123729629</v>
       </c>
       <c r="P3">
-        <v>0.02296857376003564</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0003259958202185632</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05628344136156933</v>
+        <v>0.03938168420404647</v>
       </c>
       <c r="U3">
-        <v>0.08001770656467529</v>
+        <v>0.07339432997521561</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004031999602821742</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002478776160981503</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01069615332685925</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003097649140142331</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01063316105556522</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.06839007846131155</v>
+        <v>0.05673123160439067</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -936,28 +936,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1769856529589771</v>
+        <v>0.2207774265300132</v>
       </c>
       <c r="F4">
-        <v>0.1812375335951353</v>
+        <v>0.2271332392744123</v>
       </c>
       <c r="G4">
-        <v>0.3313736272487489</v>
+        <v>0.451560258538092</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.05467648354178838</v>
+        <v>0.03794675834807592</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001899748040724687</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001425486798497941</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -966,70 +966,70 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02429013066120922</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.03817124037388642</v>
+        <v>0.0132743265813307</v>
       </c>
       <c r="Q4">
-        <v>0.0004213340003022419</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002081947545603027</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01373796558467643</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01837975322406701</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05498333611639005</v>
+        <v>0.03840544890672415</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.005242301440204749</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00268187297815116</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>9.627152205612022E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01724919449594027</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00156534513776439</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00298314625805088</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01323744676026789</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03658457536350259</v>
+        <v>0.01090254182135171</v>
       </c>
       <c r="AJ4">
-        <v>0.02069560635405521</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1052,25 +1052,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2032455112866982</v>
+        <v>0.2574807748858288</v>
       </c>
       <c r="F5">
-        <v>0.1636397687463652</v>
+        <v>0.1987924749340035</v>
       </c>
       <c r="G5">
-        <v>0.3265971906938985</v>
+        <v>0.4402648838629278</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04261189426116539</v>
+        <v>0.0194518100522401</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01010189269261712</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1079,73 +1079,73 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006679543113400475</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01037269452782096</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01934312045507736</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003221159209928166</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.008849322160585125</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02559822145797105</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.06020378232710403</v>
+        <v>0.04551969660887632</v>
       </c>
       <c r="V5">
-        <v>0.003564288690546874</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004603750259818392</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000719203783645753</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002919456172420976</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003270469282289816</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003196117020735629</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.006282510060597732</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001495349119460389</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003419035740079356</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0007950467253165212</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.005993111035085324</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003588670627675026</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05546004107359166</v>
+        <v>0.03849035965612339</v>
       </c>
       <c r="AJ5">
-        <v>0.03884412428835116</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1165,31 +1165,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.122136821192268</v>
+        <v>0.1431737589432985</v>
       </c>
       <c r="E6">
-        <v>0.04759345702374445</v>
+        <v>0.02821885386220876</v>
       </c>
       <c r="F6">
-        <v>0.2975156294094078</v>
+        <v>0.4136291438955774</v>
       </c>
       <c r="G6">
-        <v>0.2408039516429901</v>
+        <v>0.3261728611352575</v>
       </c>
       <c r="H6">
-        <v>0.01047157923873375</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03143499334128266</v>
+        <v>0.003300543834312662</v>
       </c>
       <c r="J6">
-        <v>0.012910972510244</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001755381676290487</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1198,31 +1198,31 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0262088226364708</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01389332688710266</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001224669829941411</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.000428088051892152</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04257666354353266</v>
+        <v>0.02048235008669638</v>
       </c>
       <c r="U6">
-        <v>0.04658032122596528</v>
+        <v>0.02665647563086597</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.004712814252124066</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01491812589526798</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01549200439639565</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003341848029492348</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005128019431330762</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006699052113595934</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.05417345767192701</v>
+        <v>0.03836601261178303</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1290,100 +1290,100 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1506786314582271</v>
+        <v>0.2013572772274324</v>
       </c>
       <c r="H7">
-        <v>0.1403745609477622</v>
+        <v>0.1841645103119003</v>
       </c>
       <c r="I7">
-        <v>0.3117329027550151</v>
+        <v>0.4700829759058672</v>
       </c>
       <c r="J7">
-        <v>4.901020251254334E-05</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.10860093047024</v>
+        <v>0.1311488965012726</v>
       </c>
       <c r="L7">
-        <v>0.02749291773416072</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.01897086845054217</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.002348325059980509</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.001169697572669362</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02652503236013869</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01097282196313537</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.002485728950265189</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.003002248960621915</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.03793887467838793</v>
+        <v>0.01324634005352755</v>
       </c>
       <c r="U7">
-        <v>0.01651931691619547</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02852317754586658</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02749291773416072</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0002249073497383939</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.0001543465148009177</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.0007984454507377269</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.009238705812601417</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.983163720425439E-05</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.003315266726153893</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.002576507508039257</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0003850907622584306</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.000158087604993343</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.005654779167580425</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01538646706185278</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.009687699109207082</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.003953569358395402</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.0271510197288015</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.006417312447753299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1403,25 +1403,25 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08007208645178034</v>
+        <v>0.07981047641107106</v>
       </c>
       <c r="G8">
-        <v>0.03930372097862372</v>
+        <v>0.02026978511394087</v>
       </c>
       <c r="H8">
-        <v>0.2608012698216597</v>
+        <v>0.3437587704012652</v>
       </c>
       <c r="I8">
-        <v>0.2410768916325857</v>
+        <v>0.3149520449131714</v>
       </c>
       <c r="J8">
-        <v>0.05199253862485097</v>
+        <v>0.03880133440789144</v>
       </c>
       <c r="K8">
-        <v>0.1011718300001399</v>
+        <v>0.1106258721837734</v>
       </c>
       <c r="L8">
-        <v>0.05652058204467188</v>
+        <v>0.04541437450186026</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007986008750710665</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01606100643167078</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.006138506699623934</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0357895833670438</v>
+        <v>0.01513751698696674</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.04680821757086722</v>
+        <v>0.03122982508005969</v>
       </c>
       <c r="W8">
-        <v>0.01725234324012565</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.002152837968521669</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.01202354030215869</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.001606977464857239</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.02324205865010799</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1519,34 +1519,34 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2869969001468278</v>
+        <v>0.351158037039194</v>
       </c>
       <c r="G9">
-        <v>0.05360395299682633</v>
+        <v>0.03746684509938748</v>
       </c>
       <c r="H9">
-        <v>0.3279254745072808</v>
+        <v>0.4061679824223162</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.152703236973774</v>
+        <v>0.1706609835286467</v>
       </c>
       <c r="K9">
-        <v>0.02318911271825615</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.02193315352458486</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0023393883376167</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0009445863404342351</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.01656907326162733</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.03795083010372847</v>
+        <v>0.01642830542680547</v>
       </c>
       <c r="V9">
-        <v>0.03701195194394461</v>
+        <v>0.01516640864446798</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.0279237527568155</v>
+        <v>0.002951437839182047</v>
       </c>
       <c r="AK9">
-        <v>0.01090858638828325</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1629,28 +1629,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1000084351846172</v>
+        <v>0.1028239085758826</v>
       </c>
       <c r="E10">
-        <v>0.01161775949317143</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3283244008311398</v>
+        <v>0.4262881655235591</v>
       </c>
       <c r="G10">
-        <v>0.2632514977208297</v>
+        <v>0.3340968104757383</v>
       </c>
       <c r="H10">
-        <v>0.04059884567327791</v>
+        <v>0.01865599385106092</v>
       </c>
       <c r="I10">
-        <v>0.03438289721502315</v>
+        <v>0.009849613869788448</v>
       </c>
       <c r="J10">
-        <v>0.07498127343256848</v>
+        <v>0.06736693885976128</v>
       </c>
       <c r="K10">
-        <v>0.004038814969247384</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01168419241305121</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1668,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.009521451496890359</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.03497442481766856</v>
+        <v>0.01068765441553795</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.04876895755487123</v>
+        <v>0.03023091442867148</v>
       </c>
       <c r="U10">
-        <v>0.009582729936656618</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1713,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.003108691206942004</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.003308508424996406</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.02184711962904853</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1754,100 +1754,100 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.105424069405583</v>
+        <v>0.1233575102882652</v>
       </c>
       <c r="H11">
-        <v>0.1548868538160933</v>
+        <v>0.2047564288157039</v>
       </c>
       <c r="I11">
-        <v>0.31537223086996</v>
+        <v>0.4688607708445602</v>
       </c>
       <c r="J11">
-        <v>0.002329626373930934</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1076079179964085</v>
+        <v>0.1269513822394586</v>
       </c>
       <c r="L11">
-        <v>0.04473157290132079</v>
+        <v>0.02347830540614889</v>
       </c>
       <c r="M11">
-        <v>0.01431714749194156</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.004345614501852203</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.01304220827457452</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.0176726394797439</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01371290435610627</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.0001932022773641274</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009954657651297327</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.04049163812974321</v>
+        <v>0.01650081497275626</v>
       </c>
       <c r="U11">
-        <v>0.006067975788494011</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.04524104826150172</v>
+        <v>0.0243167285525477</v>
       </c>
       <c r="W11">
-        <v>0.03762181294486656</v>
+        <v>0.01177805888055922</v>
       </c>
       <c r="X11">
-        <v>9.635849269489998E-05</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.0008221026795787494</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.439407897933846E-05</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.477869696260047E-05</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.001369487787704158</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1.223590614748885E-05</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.003010918998758849</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.001053641940076577</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.002788753923850878</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.004809212507519866</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.01006709970595948</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005296926429893289</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.004607318163201878</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.0244640713902981</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.008549578777592007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1990,97 +1990,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.146728382372551</v>
+        <v>0.1567929468403226</v>
       </c>
       <c r="E2">
-        <v>0.146728382372551</v>
+        <v>0.1567929468403226</v>
       </c>
       <c r="F2">
-        <v>0.5287764700542563</v>
+        <v>0.6053812568336105</v>
       </c>
       <c r="G2">
-        <v>0.6600096196837589</v>
+        <v>0.7429601856236496</v>
       </c>
       <c r="H2">
-        <v>0.6600096196837589</v>
+        <v>0.7429601856236496</v>
       </c>
       <c r="I2">
-        <v>0.6600096196837589</v>
+        <v>0.7429601856236496</v>
       </c>
       <c r="J2">
-        <v>0.6853099720060793</v>
+        <v>0.7491829280737076</v>
       </c>
       <c r="K2">
-        <v>0.6853099720060793</v>
+        <v>0.7491829280737076</v>
       </c>
       <c r="L2">
-        <v>0.6977291583546501</v>
+        <v>0.7491829280737076</v>
       </c>
       <c r="M2">
-        <v>0.6977291583546501</v>
+        <v>0.7491829280737076</v>
       </c>
       <c r="N2">
-        <v>0.6977291583546501</v>
+        <v>0.7491829280737076</v>
       </c>
       <c r="O2">
-        <v>0.8390369153238935</v>
+        <v>0.8992543240944915</v>
       </c>
       <c r="P2">
-        <v>0.8881938300307655</v>
+        <v>0.9350590952804608</v>
       </c>
       <c r="Q2">
-        <v>0.8881938300307655</v>
+        <v>0.9350590952804608</v>
       </c>
       <c r="R2">
-        <v>0.8913880439145928</v>
+        <v>0.9350590952804608</v>
       </c>
       <c r="S2">
-        <v>0.8913880439145928</v>
+        <v>0.9350590952804608</v>
       </c>
       <c r="T2">
-        <v>0.9171759242683776</v>
+        <v>0.9418863702697786</v>
       </c>
       <c r="U2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9843239199906975</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2106,97 +2106,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2081706359741957</v>
+        <v>0.2570452732525011</v>
       </c>
       <c r="E3">
-        <v>0.2275973090726492</v>
+        <v>0.2570452732525011</v>
       </c>
       <c r="F3">
-        <v>0.5217946509323624</v>
+        <v>0.6373720489701282</v>
       </c>
       <c r="G3">
-        <v>0.6397600795529524</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="H3">
-        <v>0.6530238241222096</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="I3">
-        <v>0.6621390185408876</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="J3">
-        <v>0.6621390185408876</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="K3">
-        <v>0.6640945484256283</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="L3">
-        <v>0.666675650761139</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="M3">
-        <v>0.666675650761139</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="N3">
-        <v>0.666675650761139</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="O3">
-        <v>0.7410764647458197</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="P3">
-        <v>0.7640450385058554</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="Q3">
-        <v>0.7640450385058554</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="R3">
-        <v>0.7640450385058554</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="S3">
-        <v>0.7643710343260739</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="T3">
-        <v>0.8206544756876433</v>
+        <v>0.8698744384203937</v>
       </c>
       <c r="U3">
-        <v>0.9006721822523186</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="V3">
-        <v>0.9006721822523186</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="W3">
-        <v>0.9006721822523186</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="X3">
-        <v>0.9006721822523186</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="Y3">
-        <v>0.9047041818551403</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="Z3">
-        <v>0.9071829580161218</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AA3">
-        <v>0.9071829580161218</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AB3">
-        <v>0.9071829580161218</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AC3">
-        <v>0.9178791113429811</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AD3">
-        <v>0.9178791113429811</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AE3">
-        <v>0.9178791113429811</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AF3">
-        <v>0.9209767604831234</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AG3">
-        <v>0.9209767604831234</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AH3">
-        <v>0.9316099215386886</v>
+        <v>0.9432687683956094</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -2225,106 +2225,106 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1769856529589771</v>
+        <v>0.2207774265300132</v>
       </c>
       <c r="F4">
-        <v>0.3582231865541124</v>
+        <v>0.4479106658044255</v>
       </c>
       <c r="G4">
-        <v>0.6895968138028612</v>
+        <v>0.8994709243425174</v>
       </c>
       <c r="H4">
-        <v>0.6895968138028612</v>
+        <v>0.8994709243425174</v>
       </c>
       <c r="I4">
-        <v>0.7442732973446495</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="J4">
-        <v>0.7442732973446495</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="K4">
-        <v>0.7461730453853742</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="L4">
-        <v>0.7475985321838722</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="M4">
-        <v>0.7475985321838722</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="N4">
-        <v>0.7475985321838722</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="O4">
-        <v>0.7718886628450814</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="P4">
-        <v>0.8100599032189678</v>
+        <v>0.950692009271924</v>
       </c>
       <c r="Q4">
-        <v>0.81048123721927</v>
+        <v>0.950692009271924</v>
       </c>
       <c r="R4">
-        <v>0.812563184764873</v>
+        <v>0.950692009271924</v>
       </c>
       <c r="S4">
-        <v>0.8263011503495494</v>
+        <v>0.950692009271924</v>
       </c>
       <c r="T4">
-        <v>0.8446809035736165</v>
+        <v>0.950692009271924</v>
       </c>
       <c r="U4">
-        <v>0.8996642396900065</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="V4">
-        <v>0.8996642396900065</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="W4">
-        <v>0.9049065411302113</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="X4">
-        <v>0.9049065411302113</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="Y4">
-        <v>0.9075884141083624</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="Z4">
-        <v>0.9075884141083624</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AA4">
-        <v>0.9076846856304186</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AB4">
-        <v>0.9076846856304186</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AC4">
-        <v>0.9249338801263589</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AD4">
-        <v>0.9264992252641233</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AE4">
-        <v>0.9264992252641233</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AF4">
-        <v>0.9294823715221742</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AG4">
-        <v>0.942719818282442</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AH4">
-        <v>0.942719818282442</v>
+        <v>0.9890974581786481</v>
       </c>
       <c r="AI4">
-        <v>0.9793043936459446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -2341,106 +2341,106 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2032455112866982</v>
+        <v>0.2574807748858288</v>
       </c>
       <c r="F5">
-        <v>0.3668852800330634</v>
+        <v>0.4562732498198323</v>
       </c>
       <c r="G5">
-        <v>0.6934824707269619</v>
+        <v>0.8965381336827601</v>
       </c>
       <c r="H5">
-        <v>0.6934824707269619</v>
+        <v>0.8965381336827601</v>
       </c>
       <c r="I5">
-        <v>0.7360943649881273</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="J5">
-        <v>0.7360943649881273</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="K5">
-        <v>0.7461962576807444</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="L5">
-        <v>0.7461962576807444</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="M5">
-        <v>0.7461962576807444</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="N5">
-        <v>0.7468642119920844</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="O5">
-        <v>0.7572369065199054</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="P5">
-        <v>0.7765800269749827</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="Q5">
-        <v>0.7769021428959756</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="R5">
-        <v>0.7769021428959756</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="S5">
-        <v>0.7857514650565607</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="T5">
-        <v>0.8113496865145318</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="U5">
-        <v>0.8715534688416358</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="V5">
-        <v>0.8751177575321827</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="W5">
-        <v>0.8797215077920011</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="X5">
-        <v>0.8797215077920011</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="Y5">
-        <v>0.8804407115756469</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="Z5">
-        <v>0.880732657192889</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AA5">
-        <v>0.8840031264751788</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AB5">
-        <v>0.8871992434959144</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AC5">
-        <v>0.8934817535565122</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AD5">
-        <v>0.8949771026759725</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AE5">
-        <v>0.8953190062499805</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AF5">
-        <v>0.896114052975297</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AG5">
-        <v>0.9021071640103824</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AH5">
-        <v>0.9056958346380574</v>
+        <v>0.9615096403438765</v>
       </c>
       <c r="AI5">
-        <v>0.9611558757116491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2454,97 +2454,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.122136821192268</v>
+        <v>0.1431737589432985</v>
       </c>
       <c r="E6">
-        <v>0.1697302782160124</v>
+        <v>0.1713926128055072</v>
       </c>
       <c r="F6">
-        <v>0.4672459076254203</v>
+        <v>0.5850217567010846</v>
       </c>
       <c r="G6">
-        <v>0.7080498592684104</v>
+        <v>0.911194617836342</v>
       </c>
       <c r="H6">
-        <v>0.7185214385071441</v>
+        <v>0.911194617836342</v>
       </c>
       <c r="I6">
-        <v>0.7499564318484268</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="J6">
-        <v>0.7628674043586707</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="K6">
-        <v>0.7628674043586707</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="L6">
-        <v>0.7646227860349613</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="M6">
-        <v>0.7646227860349613</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="N6">
-        <v>0.7646227860349613</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="O6">
-        <v>0.7908316086714321</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="P6">
-        <v>0.8047249355585347</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="Q6">
-        <v>0.8047249355585347</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="R6">
-        <v>0.8059496053884762</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="S6">
-        <v>0.8063776934403684</v>
+        <v>0.9144951616706547</v>
       </c>
       <c r="T6">
-        <v>0.848954356983901</v>
+        <v>0.9349775117573511</v>
       </c>
       <c r="U6">
-        <v>0.8955346782098662</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="V6">
-        <v>0.8955346782098662</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="W6">
-        <v>0.9002474924619903</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="X6">
-        <v>0.9002474924619903</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="Y6">
-        <v>0.9002474924619903</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="Z6">
-        <v>0.9002474924619903</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AA6">
-        <v>0.9151656183572583</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AB6">
-        <v>0.9151656183572583</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AC6">
-        <v>0.9306576227536539</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AD6">
-        <v>0.9306576227536539</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AE6">
-        <v>0.9306576227536539</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AF6">
-        <v>0.9339994707831463</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AG6">
-        <v>0.9391274902144771</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AH6">
-        <v>0.945826542328073</v>
+        <v>0.961633987388217</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2579,97 +2579,97 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1506786314582271</v>
+        <v>0.2013572772274324</v>
       </c>
       <c r="H7">
-        <v>0.2910531924059894</v>
+        <v>0.3855217875393327</v>
       </c>
       <c r="I7">
-        <v>0.6027860951610045</v>
+        <v>0.8556047634452</v>
       </c>
       <c r="J7">
-        <v>0.602835105363517</v>
+        <v>0.8556047634452</v>
       </c>
       <c r="K7">
-        <v>0.711436035833757</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="L7">
-        <v>0.7389289535679178</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="M7">
-        <v>0.75789982201846</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="N7">
-        <v>0.7602481470784405</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="O7">
-        <v>0.7614178446511098</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="P7">
-        <v>0.7879428770112485</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="Q7">
-        <v>0.798915698974384</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="R7">
-        <v>0.8014014279246492</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="S7">
-        <v>0.8044036768852711</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="T7">
-        <v>0.8423425515636591</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.8588618684798546</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.8873850460257211</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9148779637598818</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9151028711096202</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9152572176244211</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9160556630751588</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9252943688877603</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9253142005249645</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9286294672511184</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9312059747591577</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9315910655214161</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9317491531264095</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9374039322939899</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9527903993558426</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9624780984650497</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9664316678234451</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9935826875522467</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -2692,103 +2692,103 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08007208645178034</v>
+        <v>0.07981047641107106</v>
       </c>
       <c r="G8">
-        <v>0.119375807430404</v>
+        <v>0.1000802615250119</v>
       </c>
       <c r="H8">
-        <v>0.3801770772520638</v>
+        <v>0.4438390319262772</v>
       </c>
       <c r="I8">
-        <v>0.6212539688846495</v>
+        <v>0.7587910768394486</v>
       </c>
       <c r="J8">
-        <v>0.6732465075095004</v>
+        <v>0.79759241124734</v>
       </c>
       <c r="K8">
-        <v>0.7744183375096404</v>
+        <v>0.9082182834311134</v>
       </c>
       <c r="L8">
-        <v>0.8309389195543123</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="M8">
-        <v>0.8309389195543123</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="N8">
-        <v>0.8309389195543123</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="O8">
-        <v>0.838924928305023</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="P8">
-        <v>0.8549859347366937</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="Q8">
-        <v>0.8549859347366937</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="R8">
-        <v>0.8549859347366937</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="S8">
-        <v>0.8611244414363176</v>
+        <v>0.9536326579329737</v>
       </c>
       <c r="T8">
-        <v>0.8969140248033614</v>
+        <v>0.9687701749199404</v>
       </c>
       <c r="U8">
-        <v>0.8969140248033614</v>
+        <v>0.9687701749199404</v>
       </c>
       <c r="V8">
-        <v>0.9437222423742285</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9609745856143542</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9631274235828758</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9751509638850345</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9751509638850345</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9767579413498918</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2808,103 +2808,103 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2869969001468278</v>
+        <v>0.351158037039194</v>
       </c>
       <c r="G9">
-        <v>0.3406008531436541</v>
+        <v>0.3886248821385814</v>
       </c>
       <c r="H9">
-        <v>0.6685263276509349</v>
+        <v>0.7947928645608976</v>
       </c>
       <c r="I9">
-        <v>0.6685263276509349</v>
+        <v>0.7947928645608976</v>
       </c>
       <c r="J9">
-        <v>0.8212295646247089</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="K9">
-        <v>0.8444186773429651</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="L9">
-        <v>0.8663518308675499</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="M9">
-        <v>0.8663518308675499</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="N9">
-        <v>0.8686912192051666</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="O9">
-        <v>0.8696358055456008</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="P9">
-        <v>0.8696358055456008</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="Q9">
-        <v>0.8696358055456008</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="R9">
-        <v>0.8696358055456008</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="S9">
-        <v>0.8862048788072282</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="T9">
-        <v>0.8862048788072282</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="U9">
-        <v>0.9241557089109567</v>
+        <v>0.9818821535163498</v>
       </c>
       <c r="V9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="W9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="X9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="Y9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="Z9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AA9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AB9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AC9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AD9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AE9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AF9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AG9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AH9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AI9">
-        <v>0.9611676608549012</v>
+        <v>0.9970485621608177</v>
       </c>
       <c r="AJ9">
-        <v>0.9890914136117167</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2918,97 +2918,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1000084351846172</v>
+        <v>0.1028239085758826</v>
       </c>
       <c r="E10">
-        <v>0.1116261946777886</v>
+        <v>0.1028239085758826</v>
       </c>
       <c r="F10">
-        <v>0.4399505955089285</v>
+        <v>0.5291120740994417</v>
       </c>
       <c r="G10">
-        <v>0.7032020932297582</v>
+        <v>0.86320888457518</v>
       </c>
       <c r="H10">
-        <v>0.7438009389030361</v>
+        <v>0.8818648784262408</v>
       </c>
       <c r="I10">
-        <v>0.7781838361180593</v>
+        <v>0.8917144922960293</v>
       </c>
       <c r="J10">
-        <v>0.8531651095506277</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="K10">
-        <v>0.8572039245198751</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="L10">
-        <v>0.8572039245198751</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="M10">
-        <v>0.8572039245198751</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="N10">
-        <v>0.8688881169329263</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="O10">
-        <v>0.8688881169329263</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="P10">
-        <v>0.8688881169329263</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="Q10">
-        <v>0.8784095684298167</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="R10">
-        <v>0.9133839932474852</v>
+        <v>0.9697690855713286</v>
       </c>
       <c r="S10">
-        <v>0.9133839932474852</v>
+        <v>0.9697690855713286</v>
       </c>
       <c r="T10">
-        <v>0.9621529508023564</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9717356807390131</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9748443719459551</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9748443719459551</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9781528803709515</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -3043,97 +3043,97 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.105424069405583</v>
+        <v>0.1233575102882652</v>
       </c>
       <c r="H11">
-        <v>0.2603109232216763</v>
+        <v>0.3281139391039691</v>
       </c>
       <c r="I11">
-        <v>0.5756831540916363</v>
+        <v>0.7969747099485294</v>
       </c>
       <c r="J11">
-        <v>0.5780127804655673</v>
+        <v>0.7969747099485294</v>
       </c>
       <c r="K11">
-        <v>0.6856206984619757</v>
+        <v>0.923926092187988</v>
       </c>
       <c r="L11">
-        <v>0.7303522713632965</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="M11">
-        <v>0.7446694188552381</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="N11">
-        <v>0.7490150333570903</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="O11">
-        <v>0.7620572416316648</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="P11">
-        <v>0.7797298811114086</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="Q11">
-        <v>0.7934427854675149</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="R11">
-        <v>0.793635987744879</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="S11">
-        <v>0.8035906453961763</v>
+        <v>0.947404397594137</v>
       </c>
       <c r="T11">
-        <v>0.8440822835259195</v>
+        <v>0.9639052125668932</v>
       </c>
       <c r="U11">
-        <v>0.8501502593144136</v>
+        <v>0.9639052125668932</v>
       </c>
       <c r="V11">
-        <v>0.8953913075759153</v>
+        <v>0.9882219411194409</v>
       </c>
       <c r="W11">
-        <v>0.9330131205207819</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.9331094790134767</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9339315816930555</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9339459757720348</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9339707544689974</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9353402422567015</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9353524781628491</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9383633971616079</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9394170391016845</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9422057930255354</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9470150055330553</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9570821052390147</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.962379031668908</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.96698634983211</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.991450421222408</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -3198,34 +3198,34 @@
         <v>38</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.6053812568336105</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5287764700542563</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>21</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -3239,34 +3239,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.6373720489701282</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5217946509323624</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>21</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -3280,34 +3280,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.8994709243425174</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6895968138028612</v>
-      </c>
       <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>21</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -3321,34 +3321,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.8965381336827601</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6934824707269619</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>21</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -3362,34 +3362,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5850217567010846</v>
       </c>
       <c r="F6">
-        <v>0.7080498592684104</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>21</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -3403,34 +3403,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.8556047634452</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6027860951610045</v>
-      </c>
       <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>21</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -3444,34 +3444,34 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7587910768394486</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6212539688846495</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>21</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -3485,34 +3485,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.7947928645608976</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6685263276509349</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>21</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -3526,34 +3526,34 @@
         <v>46</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5291120740994417</v>
       </c>
       <c r="F10">
-        <v>0.7032020932297582</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>21</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -3567,34 +3567,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.7969747099485294</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5756831540916363</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>21</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -3662,34 +3662,34 @@
         <v>38</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7429601856236496</v>
       </c>
       <c r="F2">
-        <v>0.8390369153238935</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>21</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -3703,34 +3703,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.765147772979051</v>
       </c>
       <c r="F3">
-        <v>0.7410764647458197</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>21</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -3744,34 +3744,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8994709243425174</v>
       </c>
       <c r="F4">
-        <v>0.7442732973446495</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>21</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -3785,34 +3785,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8965381336827601</v>
       </c>
       <c r="F5">
-        <v>0.7360943649881273</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>21</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -3826,34 +3826,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.911194617836342</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7080498592684104</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>21</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -3867,34 +3867,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8556047634452</v>
       </c>
       <c r="F7">
-        <v>0.711436035833757</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>21</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -3908,34 +3908,34 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7587910768394486</v>
       </c>
       <c r="F8">
-        <v>0.7744183375096404</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>21</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -3949,34 +3949,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7947928645608976</v>
       </c>
       <c r="F9">
-        <v>0.8212295646247089</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>21</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -3990,34 +3990,34 @@
         <v>46</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.86320888457518</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7032020932297582</v>
-      </c>
       <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>21</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4031,34 +4031,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7969747099485294</v>
       </c>
       <c r="F11">
-        <v>0.7303522713632965</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>21</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -4126,34 +4126,34 @@
         <v>38</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8992543240944915</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8390369153238935</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>21</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -4167,34 +4167,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8304927542163473</v>
       </c>
       <c r="F3">
-        <v>0.8206544756876433</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>21</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -4208,34 +4208,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8994709243425174</v>
       </c>
       <c r="F4">
-        <v>0.8100599032189678</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>21</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -4249,34 +4249,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8965381336827601</v>
       </c>
       <c r="F5">
-        <v>0.8113496865145318</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>21</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -4290,34 +4290,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.911194617836342</v>
       </c>
       <c r="F6">
-        <v>0.8047249355585347</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>21</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -4331,34 +4331,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8556047634452</v>
       </c>
       <c r="F7">
-        <v>0.8014014279246492</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>21</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -4372,34 +4372,34 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9082182834311134</v>
       </c>
       <c r="F8">
-        <v>0.8309389195543123</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>21</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -4413,34 +4413,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.9654538480895443</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8212295646247089</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>21</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -4454,34 +4454,34 @@
         <v>46</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.86320888457518</v>
       </c>
       <c r="F10">
-        <v>0.8531651095506277</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>21</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4495,34 +4495,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.923926092187988</v>
       </c>
       <c r="F11">
-        <v>0.8035906453961763</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>21</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -4590,34 +4590,34 @@
         <v>38</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9350590952804608</v>
       </c>
       <c r="F2">
-        <v>0.9171759242683776</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2">
         <v>21</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>62</v>
@@ -4631,34 +4631,34 @@
         <v>39</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9432687683956094</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9006721822523186</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
         <v>21</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -4672,34 +4672,34 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9374176826905933</v>
       </c>
       <c r="F4">
-        <v>0.9049065411302113</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
         <v>21</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -4713,34 +4713,34 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9159899437350002</v>
       </c>
       <c r="F5">
-        <v>0.9021071640103824</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
         <v>21</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>62</v>
@@ -4754,34 +4754,34 @@
         <v>42</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.911194617836342</v>
       </c>
       <c r="F6">
-        <v>0.9002474924619903</v>
+        <v>6</v>
       </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>21</v>
-      </c>
-      <c r="H6">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>62</v>
@@ -4795,34 +4795,34 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9867536599464726</v>
       </c>
       <c r="F7">
-        <v>0.9148779637598818</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7">
         <v>21</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
@@ -4836,34 +4836,34 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9082182834311134</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8">
         <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9437222423742285</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
@@ -4877,34 +4877,34 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9654538480895443</v>
       </c>
       <c r="F9">
-        <v>0.9241557089109567</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9">
         <v>21</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>62</v>
@@ -4918,34 +4918,34 @@
         <v>46</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9590814311557906</v>
       </c>
       <c r="F10">
-        <v>0.9133839932474852</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
         <v>21</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
@@ -4959,34 +4959,34 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.923926092187988</v>
       </c>
       <c r="F11">
-        <v>0.9330131205207819</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
         <v>21</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
